--- a/sriramModel-nelson-atypical-patientID_54-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_54-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.53106881120457</v>
+        <v>21.57833670151001</v>
       </c>
       <c r="C2">
-        <v>21.53481364810012</v>
+        <v>21.49057855661908</v>
       </c>
       <c r="D2">
-        <v>21.50540236853439</v>
+        <v>21.50567986744169</v>
       </c>
       <c r="E2">
-        <v>21.52575269781357</v>
+        <v>21.48948303738814</v>
       </c>
       <c r="F2">
-        <v>21.53990513696965</v>
+        <v>21.4898242951376</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.4874483024495</v>
+        <v>21.58029947514642</v>
       </c>
       <c r="C3">
-        <v>21.49486380468992</v>
+        <v>21.40681867888884</v>
       </c>
       <c r="D3">
-        <v>21.43548001125942</v>
+        <v>21.4363700460331</v>
       </c>
       <c r="E3">
-        <v>21.47477412413875</v>
+        <v>21.40461941603791</v>
       </c>
       <c r="F3">
-        <v>21.50229450682714</v>
+        <v>21.40519737303819</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45200820530211</v>
+        <v>21.58883995391671</v>
       </c>
       <c r="C4">
-        <v>21.46307378459388</v>
+        <v>21.33166427218912</v>
       </c>
       <c r="D4">
-        <v>21.37310670964657</v>
+        <v>21.37504153912533</v>
       </c>
       <c r="E4">
-        <v>21.42998571375682</v>
+        <v>21.32839217497385</v>
       </c>
       <c r="F4">
-        <v>21.47014669797764</v>
+        <v>21.32910672660286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.42461965865574</v>
+        <v>21.60391006580796</v>
       </c>
       <c r="C5">
-        <v>21.43936674491965</v>
+        <v>21.2650651009247</v>
       </c>
       <c r="D5">
-        <v>21.31816841772465</v>
+        <v>21.32166636156216</v>
       </c>
       <c r="E5">
-        <v>21.39131156808559</v>
+        <v>21.26078451662534</v>
       </c>
       <c r="F5">
-        <v>21.44344032282299</v>
+        <v>21.26154063441002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.40515505119413</v>
+        <v>21.62546219024003</v>
       </c>
       <c r="C6">
-        <v>21.42366580003403</v>
+        <v>21.20697580261287</v>
       </c>
       <c r="D6">
-        <v>21.270561396647</v>
+        <v>21.27621766820108</v>
       </c>
       <c r="E6">
-        <v>21.35867834586342</v>
+        <v>21.20178005643528</v>
       </c>
       <c r="F6">
-        <v>21.42215424692553</v>
+        <v>21.20248803310774</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.39348780173183</v>
+        <v>21.65344917663257</v>
       </c>
       <c r="C7">
-        <v>21.41589387746239</v>
+        <v>21.15735507631057</v>
       </c>
       <c r="D7">
-        <v>21.23019054664359</v>
+        <v>21.23866968661109</v>
       </c>
       <c r="E7">
-        <v>21.33201510277547</v>
+        <v>21.15136279294749</v>
       </c>
       <c r="F7">
-        <v>21.40626756961505</v>
+        <v>21.15193827099068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.38949213462565</v>
+        <v>21.68782431069462</v>
       </c>
       <c r="C8">
-        <v>21.41597359547179</v>
+        <v>21.11616505764605</v>
       </c>
       <c r="D8">
-        <v>21.19696816693532</v>
+        <v>21.20899759613131</v>
       </c>
       <c r="E8">
-        <v>21.31125315135025</v>
+        <v>21.10951705723557</v>
       </c>
       <c r="F8">
-        <v>21.39575962552051</v>
+        <v>21.10988097854931</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.39304279891499</v>
+        <v>21.72854127632931</v>
       </c>
       <c r="C9">
-        <v>21.42382709809935</v>
+        <v>21.08337082745792</v>
       </c>
       <c r="D9">
-        <v>21.1708129690311</v>
+        <v>21.18717746364393</v>
       </c>
       <c r="E9">
-        <v>21.29632590504269</v>
+        <v>21.07622748395818</v>
       </c>
       <c r="F9">
-        <v>21.39060997085981</v>
+        <v>21.07630598108501</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.40401484877174</v>
+        <v>21.77555412234036</v>
       </c>
       <c r="C10">
-        <v>21.43937589050861</v>
+        <v>21.05893992563859</v>
       </c>
       <c r="D10">
-        <v>21.15164919126322</v>
+        <v>21.17318617117662</v>
       </c>
       <c r="E10">
-        <v>21.28716873553022</v>
+        <v>21.05147898432354</v>
       </c>
       <c r="F10">
-        <v>21.39079836963052</v>
+        <v>21.05120324147248</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.42228345767586</v>
+        <v>21.82881722232184</v>
       </c>
       <c r="C11">
-        <v>21.4625406837434</v>
+        <v>21.04284203571786</v>
       </c>
       <c r="D11">
-        <v>21.13940578768941</v>
+        <v>21.16700134816642</v>
       </c>
       <c r="E11">
-        <v>21.28371884848178</v>
+        <v>21.035256715782</v>
       </c>
       <c r="F11">
-        <v>21.39630478619808</v>
+        <v>21.03456281387884</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.44772370307505</v>
+        <v>21.88828522021192</v>
       </c>
       <c r="C12">
-        <v>21.49324123764156</v>
+        <v>21.03504873731975</v>
       </c>
       <c r="D12">
-        <v>21.13401585113492</v>
+        <v>21.16860132105402</v>
       </c>
       <c r="E12">
-        <v>21.28591516985313</v>
+        <v>21.02754605591183</v>
       </c>
       <c r="F12">
-        <v>21.40710937453626</v>
+        <v>21.02637481769949</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.48021036361987</v>
+        <v>21.95391296895749</v>
       </c>
       <c r="C13">
-        <v>21.53139619433694</v>
+        <v>21.03553325761834</v>
       </c>
       <c r="D13">
-        <v>21.13541610510091</v>
+        <v>21.17796506299656</v>
       </c>
       <c r="E13">
-        <v>21.29369822549073</v>
+        <v>21.02833257944832</v>
       </c>
       <c r="F13">
-        <v>21.4231924649557</v>
+        <v>21.02662941393755</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.51961770324806</v>
+        <v>22.02565546680265</v>
       </c>
       <c r="C14">
-        <v>21.5769228868015</v>
+        <v>21.04427027252433</v>
       </c>
       <c r="D14">
-        <v>21.1435463948619</v>
+        <v>21.19507214916939</v>
       </c>
       <c r="E14">
-        <v>21.30701005610854</v>
+        <v>21.0376020359542</v>
       </c>
       <c r="F14">
-        <v>21.44453454966904</v>
+        <v>21.03531679001117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.56581926124027</v>
+        <v>22.10346778230217</v>
       </c>
       <c r="C15">
-        <v>21.62973716675263</v>
+        <v>21.06123573709568</v>
       </c>
       <c r="D15">
-        <v>21.15834924484725</v>
+        <v>21.21990268136449</v>
       </c>
       <c r="E15">
-        <v>21.3257941241862</v>
+        <v>21.05534033168926</v>
       </c>
       <c r="F15">
-        <v>21.47111626540713</v>
+        <v>21.05242714415748</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.61868765106354</v>
+        <v>22.18730496264005</v>
       </c>
       <c r="C16">
-        <v>21.68975329153476</v>
+        <v>21.08640672640989</v>
       </c>
       <c r="D16">
-        <v>21.1797694597579</v>
+        <v>21.25243726688532</v>
       </c>
       <c r="E16">
-        <v>21.34999518539765</v>
+        <v>21.08153350965415</v>
       </c>
       <c r="F16">
-        <v>21.50291838155869</v>
+        <v>21.07795067539913</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.67809434702863</v>
+        <v>22.27712196981053</v>
       </c>
       <c r="C17">
-        <v>21.75688361261476</v>
+        <v>21.11976134194735</v>
       </c>
       <c r="D17">
-        <v>21.20775378362835</v>
+        <v>21.29265698053522</v>
       </c>
       <c r="E17">
-        <v>21.37955919522599</v>
+        <v>21.11616773099501</v>
       </c>
       <c r="F17">
-        <v>21.53992178272857</v>
+        <v>21.11187755626181</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.74390947644267</v>
+        <v>22.37287358949915</v>
       </c>
       <c r="C18">
-        <v>21.83103832869392</v>
+        <v>21.16127860621792</v>
       </c>
       <c r="D18">
-        <v>21.24225057284195</v>
+        <v>21.34054333263445</v>
       </c>
       <c r="E18">
-        <v>21.41443324277665</v>
+        <v>21.15922925786905</v>
       </c>
       <c r="F18">
-        <v>21.58210744865904</v>
+        <v>21.15419795125706</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.81600161296111</v>
+        <v>22.4745142842962</v>
       </c>
       <c r="C19">
-        <v>21.91212532004693</v>
+        <v>21.21093836764913</v>
       </c>
       <c r="D19">
-        <v>21.28320946162183</v>
+        <v>21.39607823293321</v>
       </c>
       <c r="E19">
-        <v>21.45456547185481</v>
+        <v>21.2107044269899</v>
       </c>
       <c r="F19">
-        <v>21.62945643190278</v>
+        <v>21.20490195609528</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.89423754196164</v>
+        <v>22.58199810635485</v>
       </c>
       <c r="C20">
-        <v>22.00004992393573</v>
+        <v>21.2687212198422</v>
       </c>
       <c r="D20">
-        <v>21.33058103945803</v>
+        <v>21.45924395458055</v>
       </c>
       <c r="E20">
-        <v>21.49990499289585</v>
+        <v>21.27057963948142</v>
       </c>
       <c r="F20">
-        <v>21.68194983322515</v>
+        <v>21.26397965539275</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.97848203922716</v>
+        <v>22.69527855665533</v>
       </c>
       <c r="C21">
-        <v>22.09471466600707</v>
+        <v>21.33460842485413</v>
       </c>
       <c r="D21">
-        <v>21.38431654025842</v>
+        <v>21.53002310175713</v>
       </c>
       <c r="E21">
-        <v>21.55040179270361</v>
+        <v>21.33884134226242</v>
       </c>
       <c r="F21">
-        <v>21.73956877249445</v>
+        <v>21.33142107610871</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.06859762816382</v>
+        <v>22.81430844084781</v>
       </c>
       <c r="C22">
-        <v>22.19601896959853</v>
+        <v>21.40858184702598</v>
       </c>
       <c r="D22">
-        <v>21.44436753474824</v>
+        <v>21.6083985795459</v>
       </c>
       <c r="E22">
-        <v>21.60600665282175</v>
+        <v>21.41547601073519</v>
       </c>
       <c r="F22">
-        <v>21.8022943573655</v>
+        <v>21.40721619392712</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.16444433413439</v>
+        <v>22.93903974137762</v>
       </c>
       <c r="C23">
-        <v>22.30385884490591</v>
+        <v>21.49062389977411</v>
       </c>
       <c r="D23">
-        <v>21.51068561766044</v>
+        <v>21.69435355690485</v>
       </c>
       <c r="E23">
-        <v>21.6666710621404</v>
+        <v>21.50047013117818</v>
       </c>
       <c r="F23">
-        <v>21.87010764657992</v>
+        <v>21.49135490504324</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.26587942754105</v>
+        <v>23.06942346210927</v>
       </c>
       <c r="C24">
-        <v>22.41812656594424</v>
+        <v>21.58071750354928</v>
       </c>
       <c r="D24">
-        <v>21.58322208513892</v>
+        <v>21.78787144960768</v>
       </c>
       <c r="E24">
-        <v>21.73234714416538</v>
+        <v>21.59381017901811</v>
       </c>
       <c r="F24">
-        <v>21.94298960766937</v>
+        <v>21.58382701997458</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.37275715717789</v>
+        <v>23.20540945591513</v>
       </c>
       <c r="C25">
-        <v>22.53871032987667</v>
+        <v>21.67884603817895</v>
       </c>
       <c r="D25">
-        <v>21.66192759029415</v>
+        <v>21.88893586697712</v>
       </c>
       <c r="E25">
-        <v>21.80298755415619</v>
+        <v>21.69548259998881</v>
       </c>
       <c r="F25">
-        <v>22.02092106766187</v>
+        <v>21.68462225455587</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22.48492846903396</v>
+        <v>23.34694622897417</v>
       </c>
       <c r="C26">
-        <v>22.66549388749722</v>
+        <v>21.78499330225008</v>
       </c>
       <c r="D26">
-        <v>21.74675178840961</v>
+        <v>21.99753060963565</v>
       </c>
       <c r="E26">
-        <v>21.87854540908885</v>
+        <v>21.80547378867876</v>
       </c>
       <c r="F26">
-        <v>22.10388265808946</v>
+        <v>21.79373021832611</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22.60224070634612</v>
+        <v>23.49398075473122</v>
       </c>
       <c r="C27">
-        <v>22.7983561342145</v>
+        <v>21.89914346848197</v>
       </c>
       <c r="D27">
-        <v>21.83764295831068</v>
+        <v>22.11363961893429</v>
       </c>
       <c r="E27">
-        <v>21.95897417978131</v>
+        <v>21.92377006620583</v>
       </c>
       <c r="F27">
-        <v>22.19185474728076</v>
+        <v>21.91114040576957</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22.72453729940521</v>
+        <v>23.64645825519243</v>
       </c>
       <c r="C28">
-        <v>22.93717066824837</v>
+        <v>22.02128105321477</v>
       </c>
       <c r="D28">
-        <v>21.93454759912582</v>
+        <v>22.23724695186067</v>
       </c>
       <c r="E28">
-        <v>22.04422760336967</v>
+        <v>22.05035765618715</v>
       </c>
       <c r="F28">
-        <v>22.28481736436354</v>
+        <v>22.03684217755906</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22.85165743684629</v>
+        <v>23.80432196904875</v>
       </c>
       <c r="C29">
-        <v>23.08180531444326</v>
+        <v>22.15139088242056</v>
       </c>
       <c r="D29">
-        <v>22.03740999268262</v>
+        <v>22.36833673366426</v>
       </c>
       <c r="E29">
-        <v>22.1342595566364</v>
+        <v>22.18522265839045</v>
       </c>
       <c r="F29">
-        <v>22.38275010942539</v>
+        <v>22.17082474691158</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22.9834357244146</v>
+        <v>23.96751290832746</v>
       </c>
       <c r="C30">
-        <v>23.23212160893624</v>
+        <v>22.28945806055342</v>
       </c>
       <c r="D30">
-        <v>22.14617172900873</v>
+        <v>22.5068931225522</v>
       </c>
       <c r="E30">
-        <v>22.22902397380798</v>
+        <v>22.32835102070925</v>
       </c>
       <c r="F30">
-        <v>22.48563204789716</v>
+        <v>22.31307715757567</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>23.11970180945682</v>
+        <v>24.13596961122398</v>
       </c>
       <c r="C31">
-        <v>23.38797423868553</v>
+        <v>22.43546794123636</v>
       </c>
       <c r="D31">
-        <v>22.26077118897625</v>
+        <v>22.65290026713183</v>
       </c>
       <c r="E31">
-        <v>22.32847467060267</v>
+        <v>22.47972850739899</v>
       </c>
       <c r="F31">
-        <v>22.59344158529464</v>
+        <v>22.46358826495549</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.26027999817571</v>
+        <v>24.30962783585443</v>
       </c>
       <c r="C32">
-        <v>23.54921043672176</v>
+        <v>22.58940609685114</v>
       </c>
       <c r="D32">
-        <v>22.3811429771768</v>
+        <v>22.80634225987979</v>
       </c>
       <c r="E32">
-        <v>22.43256526084769</v>
+        <v>22.63934066351138</v>
       </c>
       <c r="F32">
-        <v>22.70615632468221</v>
+        <v>22.62234671193245</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>23.40498884254154</v>
+        <v>24.48842025894698</v>
       </c>
       <c r="C33">
-        <v>23.71566931842122</v>
+        <v>22.75125828973621</v>
       </c>
       <c r="D33">
-        <v>22.50721729733528</v>
+        <v>22.96720308509333</v>
       </c>
       <c r="E33">
-        <v>22.54124894980784</v>
+        <v>22.80717277613306</v>
       </c>
       <c r="F33">
-        <v>22.8237528877853</v>
+        <v>22.78934090491812</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>23.55364071831898</v>
+        <v>24.67227616279054</v>
       </c>
       <c r="C34">
-        <v>23.88718115951985</v>
+        <v>22.92101044021329</v>
       </c>
       <c r="D34">
-        <v>22.6389192602105</v>
+        <v>23.13546656013869</v>
       </c>
       <c r="E34">
-        <v>22.65447839020855</v>
+        <v>22.98320983108053</v>
       </c>
       <c r="F34">
-        <v>22.94620671014921</v>
+        <v>22.96455898188352</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23.706041349837</v>
+        <v>24.86112106731536</v>
       </c>
       <c r="C35">
-        <v>24.06356661456389</v>
+        <v>23.09864859500648</v>
       </c>
       <c r="D35">
-        <v>22.77616811809782</v>
+        <v>23.31111627221144</v>
       </c>
       <c r="E35">
-        <v>22.77220549533115</v>
+        <v>23.1674364647238</v>
       </c>
       <c r="F35">
-        <v>23.07349179482158</v>
+        <v>23.14798877882077</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23.86198932898221</v>
+        <v>25.05487634682719</v>
       </c>
       <c r="C36">
-        <v>24.24463586546324</v>
+        <v>23.28415889312201</v>
       </c>
       <c r="D36">
-        <v>22.91887640948195</v>
+        <v>23.49413549412349</v>
       </c>
       <c r="E36">
-        <v>22.89438113994601</v>
+        <v>23.35983690629939</v>
       </c>
       <c r="F36">
-        <v>23.20558041735156</v>
+        <v>23.33961779173912</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>24.02127559639649</v>
+        <v>25.25345882456055</v>
       </c>
       <c r="C37">
-        <v>24.43018769513107</v>
+        <v>23.47752752835024</v>
       </c>
       <c r="D37">
-        <v>23.06694899631115</v>
+        <v>23.68450709876132</v>
       </c>
       <c r="E37">
-        <v>23.02095504035632</v>
+        <v>23.56039491518976</v>
       </c>
       <c r="F37">
-        <v>23.34244277044947</v>
+        <v>23.53943313161125</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24.18368290721799</v>
+        <v>25.45678034761211</v>
       </c>
       <c r="C38">
-        <v>24.62000848010697</v>
+        <v>23.67874070704834</v>
       </c>
       <c r="D38">
-        <v>23.22028198701207</v>
+        <v>23.88221346778479</v>
       </c>
       <c r="E38">
-        <v>23.15187527070618</v>
+        <v>23.76909370707382</v>
       </c>
       <c r="F38">
-        <v>23.48404655146909</v>
+        <v>23.74742146893403</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24.34898523888831</v>
+        <v>25.6647472750109</v>
       </c>
       <c r="C39">
-        <v>24.81387109350361</v>
+        <v>23.88778459892191</v>
       </c>
       <c r="D39">
-        <v>23.37876151827575</v>
+        <v>24.08723636190368</v>
       </c>
       <c r="E39">
-        <v>23.28708808235535</v>
+        <v>23.98591587494834</v>
       </c>
       <c r="F39">
-        <v>23.63035643618274</v>
+        <v>23.96356897186907</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24.5169471811406</v>
+        <v>25.87725996848865</v>
       </c>
       <c r="C40">
-        <v>25.0115337233588</v>
+        <v>24.10464528018345</v>
       </c>
       <c r="D40">
-        <v>23.54226237293864</v>
+        <v>24.29955678310348</v>
       </c>
       <c r="E40">
-        <v>23.4265373763966</v>
+        <v>24.21084328596428</v>
       </c>
       <c r="F40">
-        <v>23.7813334649512</v>
+        <v>24.18786124105841</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>24.68732328776685</v>
+        <v>26.09421226549408</v>
       </c>
       <c r="C41">
-        <v>25.21273858133981</v>
+        <v>24.3293086649152</v>
       </c>
       <c r="D41">
-        <v>23.71064640311809</v>
+        <v>24.51915482391135</v>
       </c>
       <c r="E41">
-        <v>23.57016417990852</v>
+        <v>24.44385697109525</v>
       </c>
       <c r="F41">
-        <v>23.93693429192648</v>
+        <v>24.4202832200542</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>24.85985740241148</v>
+        <v>26.31549083053637</v>
       </c>
       <c r="C42">
-        <v>25.41721050650999</v>
+        <v>24.56176041853063</v>
       </c>
       <c r="D42">
-        <v>23.88376073738816</v>
+        <v>24.746009470896</v>
       </c>
       <c r="E42">
-        <v>23.71790631863927</v>
+        <v>24.68493698970326</v>
       </c>
       <c r="F42">
-        <v>24.09711026952925</v>
+        <v>24.66081909559872</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>25.03428192964995</v>
+        <v>26.54097449986739</v>
       </c>
       <c r="C43">
-        <v>25.62465546422733</v>
+        <v>24.80198585251675</v>
       </c>
       <c r="D43">
-        <v>24.06143570767147</v>
+        <v>24.98009836927469</v>
       </c>
       <c r="E43">
-        <v>23.86969737424197</v>
+        <v>24.93406228553582</v>
       </c>
       <c r="F43">
-        <v>24.26180632792672</v>
+        <v>24.90945217822933</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>25.21031707005303</v>
+        <v>26.77053357951362</v>
       </c>
       <c r="C44">
-        <v>25.8347589286173</v>
+        <v>25.04996978829111</v>
       </c>
       <c r="D44">
-        <v>24.24348245009981</v>
+        <v>25.22139754856744</v>
       </c>
       <c r="E44">
-        <v>24.02546596131471</v>
+        <v>25.19121049320714</v>
       </c>
       <c r="F44">
-        <v>24.43095965365579</v>
+        <v>25.16616477456942</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>25.38767002560066</v>
+        <v>27.00402906386597</v>
       </c>
       <c r="C45">
-        <v>26.04718414936612</v>
+        <v>25.30569638724993</v>
       </c>
       <c r="D45">
-        <v>24.42969016481731</v>
+        <v>25.46988113736981</v>
       </c>
       <c r="E45">
-        <v>24.18513467208419</v>
+        <v>25.45635772216072</v>
       </c>
       <c r="F45">
-        <v>24.60449798162347</v>
+        <v>25.43093799987173</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>25.56603416729343</v>
+        <v>27.24131178081734</v>
       </c>
       <c r="C46">
-        <v>26.26157030390225</v>
+        <v>25.56914892802963</v>
       </c>
       <c r="D46">
-        <v>24.6198228709775</v>
+        <v>25.72552091614915</v>
       </c>
       <c r="E46">
-        <v>24.34861886005745</v>
+        <v>25.72947829152171</v>
       </c>
       <c r="F46">
-        <v>24.7823375636382</v>
+        <v>25.70375157584857</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>25.74508816301347</v>
+        <v>27.48222143302455</v>
       </c>
       <c r="C47">
-        <v>26.47753053730565</v>
+        <v>25.84030950199066</v>
       </c>
       <c r="D47">
-        <v>24.81361564965125</v>
+        <v>25.98828584722513</v>
       </c>
       <c r="E47">
-        <v>24.51582507250243</v>
+        <v>26.01054443433455</v>
       </c>
       <c r="F47">
-        <v>24.96438065645975</v>
+        <v>25.98458359545511</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>25.92449504995636</v>
+        <v>27.7265856718489</v>
       </c>
       <c r="C48">
-        <v>26.69464991386136</v>
+        <v>26.11915861919249</v>
       </c>
       <c r="D48">
-        <v>25.0107702392316</v>
+        <v>26.2581415664264</v>
       </c>
       <c r="E48">
-        <v>24.68664908382086</v>
+        <v>26.2995259034554</v>
       </c>
       <c r="F48">
-        <v>25.15051242140127</v>
+        <v>26.27341021453267</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>26.10390132926914</v>
+        <v>27.9742188545982</v>
       </c>
       <c r="C49">
-        <v>26.9124832715186</v>
+        <v>26.40567465467605</v>
       </c>
       <c r="D49">
-        <v>25.21094985945068</v>
+        <v>26.5350496152306</v>
       </c>
       <c r="E49">
-        <v>24.86097351486229</v>
+        <v>26.59638950789528</v>
       </c>
       <c r="F49">
-        <v>25.34059711565884</v>
+        <v>26.57020526133091</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>26.28293598709702</v>
+        <v>28.22492084839952</v>
       </c>
       <c r="C50">
-        <v>27.13055302469923</v>
+        <v>26.69983322018845</v>
       </c>
       <c r="D50">
-        <v>25.41377312462278</v>
+        <v>26.81896656124189</v>
       </c>
       <c r="E50">
-        <v>25.03866484860349</v>
+        <v>26.90109853768271</v>
       </c>
       <c r="F50">
-        <v>25.53447353307869</v>
+        <v>26.87493975733</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>26.46120953615643</v>
+        <v>28.4784757490931</v>
       </c>
       <c r="C51">
-        <v>27.34834695672278</v>
+        <v>27.00160595976891</v>
       </c>
       <c r="D51">
-        <v>25.61880688589196</v>
+        <v>27.10984299244595</v>
       </c>
       <c r="E51">
-        <v>25.2195695318838</v>
+        <v>27.21361208895474</v>
       </c>
       <c r="F51">
-        <v>25.73194911704116</v>
+        <v>27.18758140060945</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>26.63831301046832</v>
+        <v>28.73465032120544</v>
       </c>
       <c r="C52">
-        <v>27.56531603474924</v>
+        <v>27.31095926016065</v>
       </c>
       <c r="D52">
-        <v>25.82555787493262</v>
+        <v>27.40762225004064</v>
       </c>
       <c r="E52">
-        <v>25.40350932164722</v>
+        <v>27.53388418237873</v>
       </c>
       <c r="F52">
-        <v>25.93279325591303</v>
+        <v>27.50809378322608</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>26.83842189923467</v>
+        <v>28.99319232322735</v>
       </c>
       <c r="C53">
-        <v>27.80544787518089</v>
+        <v>27.62785236298779</v>
       </c>
       <c r="D53">
-        <v>26.06689827230759</v>
+        <v>27.71223866217612</v>
       </c>
       <c r="E53">
-        <v>25.62076179615418</v>
+        <v>27.86186263453096</v>
       </c>
       <c r="F53">
-        <v>26.16122211486287</v>
+        <v>27.83643544143852</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>27.08394778591155</v>
+        <v>29.25382871197226</v>
       </c>
       <c r="C54">
-        <v>28.09091652362572</v>
+        <v>27.95223456941086</v>
       </c>
       <c r="D54">
-        <v>26.3739648224079</v>
+        <v>28.02361546286464</v>
       </c>
       <c r="E54">
-        <v>25.90089125712547</v>
+        <v>28.19748765534274</v>
       </c>
       <c r="F54">
-        <v>26.44084190614345</v>
+        <v>28.17255857040347</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>27.37172981259122</v>
+        <v>29.51626370709896</v>
       </c>
       <c r="C55">
-        <v>28.41826197215972</v>
+        <v>28.28404144674938</v>
       </c>
       <c r="D55">
-        <v>26.7432741209314</v>
+        <v>28.34166266164144</v>
       </c>
       <c r="E55">
-        <v>26.24250115643128</v>
+        <v>28.54069027064527</v>
       </c>
       <c r="F55">
-        <v>26.77028921640526</v>
+        <v>28.51640750351593</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>27.69847764893336</v>
+        <v>29.78017635570962</v>
       </c>
       <c r="C56">
-        <v>28.78380048070274</v>
+        <v>28.62318966180823</v>
       </c>
       <c r="D56">
-        <v>27.17082348345043</v>
+        <v>28.66627334024859</v>
       </c>
       <c r="E56">
-        <v>26.64397405074183</v>
+        <v>28.89138961561029</v>
       </c>
       <c r="F56">
-        <v>27.14790794993105</v>
+        <v>28.86791665364</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>28.06075835645813</v>
+        <v>30.04521806462734</v>
       </c>
       <c r="C57">
-        <v>29.18361560942637</v>
+        <v>28.96956973163956</v>
       </c>
       <c r="D57">
-        <v>27.65199851492174</v>
+        <v>28.99731956405132</v>
       </c>
       <c r="E57">
-        <v>27.10339151693532</v>
+        <v>29.24949009409544</v>
       </c>
       <c r="F57">
-        <v>27.57168093972883</v>
+        <v>29.22700771094953</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>28.45498598710913</v>
+        <v>30.31101004017834</v>
       </c>
       <c r="C58">
-        <v>29.613552489613</v>
+        <v>29.32303626748862</v>
       </c>
       <c r="D58">
-        <v>28.18147334104158</v>
+        <v>29.33464839980974</v>
       </c>
       <c r="E58">
-        <v>27.61843466710985</v>
+        <v>29.61487746026526</v>
       </c>
       <c r="F58">
-        <v>28.03914549261672</v>
+        <v>29.59358587132842</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>28.87741237588601</v>
+        <v>30.5771399712518</v>
       </c>
       <c r="C59">
-        <v>30.06921771580039</v>
+        <v>29.68339491800612</v>
       </c>
       <c r="D59">
-        <v>28.75310847885391</v>
+        <v>29.67807344049277</v>
       </c>
       <c r="E59">
-        <v>28.18625884558374</v>
+        <v>29.98741347059761</v>
       </c>
       <c r="F59">
-        <v>28.547298389527</v>
+        <v>29.96753472261553</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>29.3241197719334</v>
+        <v>30.84315868673742</v>
       </c>
       <c r="C60">
-        <v>30.5459856471905</v>
+        <v>30.05038522478268</v>
       </c>
       <c r="D60">
-        <v>29.3598581899405</v>
+        <v>30.0273672294372</v>
       </c>
       <c r="E60">
-        <v>28.80333577583027</v>
+        <v>30.36692861501992</v>
       </c>
       <c r="F60">
-        <v>29.0924893651811</v>
+        <v>30.34870919068555</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>29.79101775606553</v>
+        <v>31.10857619187406</v>
       </c>
       <c r="C61">
-        <v>31.03901277112194</v>
+        <v>30.42365858995074</v>
       </c>
       <c r="D61">
-        <v>29.99369967736703</v>
+        <v>30.38225073212424</v>
       </c>
       <c r="E61">
-        <v>29.46525783731295</v>
+        <v>30.75321223513817</v>
       </c>
       <c r="F61">
-        <v>29.67031214307303</v>
+        <v>30.73692566237724</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>30.27384399520884</v>
+        <v>31.37285758655726</v>
       </c>
       <c r="C62">
-        <v>31.5432620996653</v>
+        <v>30.80275038009559</v>
       </c>
       <c r="D62">
-        <v>30.6456123782974</v>
+        <v>30.7423795339455</v>
       </c>
       <c r="E62">
-        <v>30.16650817315574</v>
+        <v>31.14599889068144</v>
       </c>
       <c r="F62">
-        <v>30.27549866084447</v>
+        <v>31.13194799882108</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>30.76817008614579</v>
+        <v>31.63541856545362</v>
       </c>
       <c r="C63">
-        <v>32.05353945700399</v>
+        <v>31.18704547386088</v>
       </c>
       <c r="D63">
-        <v>31.30563924058735</v>
+        <v>31.10732594472533</v>
       </c>
       <c r="E63">
-        <v>30.90019259395667</v>
+        <v>31.54494927251507</v>
       </c>
       <c r="F63">
-        <v>30.90183370992333</v>
+        <v>31.5334681276124</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31.26941479992509</v>
+        <v>31.89562046162632</v>
       </c>
       <c r="C64">
-        <v>32.5645434373318</v>
+        <v>31.57573668914981</v>
       </c>
       <c r="D64">
-        <v>31.96306821774639</v>
+        <v>31.47655623606805</v>
       </c>
       <c r="E64">
-        <v>31.65777514579101</v>
+        <v>31.94962374854631</v>
       </c>
       <c r="F64">
-        <v>31.54211254906415</v>
+        <v>31.94107632705889</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31.77286683240257</v>
+        <v>32.15276496808301</v>
       </c>
       <c r="C65">
-        <v>33.07093043483189</v>
+        <v>31.96777596502712</v>
       </c>
       <c r="D65">
-        <v>32.60676452069178</v>
+        <v>31.84940249497598</v>
       </c>
       <c r="E65">
-        <v>32.42886103226731</v>
+        <v>32.35944352629207</v>
       </c>
       <c r="F65">
-        <v>32.18816840319295</v>
+        <v>32.3542190331291</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>32.27371866240935</v>
+        <v>32.40608873926607</v>
       </c>
       <c r="C66">
-        <v>33.56739542139324</v>
+        <v>32.36181943717001</v>
       </c>
       <c r="D66">
-        <v>33.22566194234773</v>
+        <v>32.22502508798522</v>
       </c>
       <c r="E66">
-        <v>33.20111347765092</v>
+        <v>32.77363478553787</v>
       </c>
       <c r="F66">
-        <v>32.83100022505724</v>
+        <v>32.77214038380281</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>32.76711472653187</v>
+        <v>32.654758132894</v>
       </c>
       <c r="C67">
-        <v>34.04876802499349</v>
+        <v>32.75616904182156</v>
       </c>
       <c r="D67">
-        <v>33.80938078088771</v>
+        <v>32.60236737440755</v>
       </c>
       <c r="E67">
-        <v>33.96042722535297</v>
+        <v>33.19115369321528</v>
       </c>
       <c r="F67">
-        <v>33.46102531983195</v>
+        <v>33.19379380189256</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>33.24821553822674</v>
+        <v>32.89786447420006</v>
       </c>
       <c r="C68">
-        <v>34.51012191342231</v>
+        <v>33.14871576980845</v>
       </c>
       <c r="D68">
-        <v>34.34889191719249</v>
+        <v>32.98010220787218</v>
       </c>
       <c r="E68">
-        <v>34.69147810530261</v>
+        <v>33.61057549204196</v>
       </c>
       <c r="F68">
-        <v>34.06846646124587</v>
+        <v>33.61772209884429</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>33.71228002904071</v>
+        <v>33.13442056763829</v>
       </c>
       <c r="C69">
-        <v>34.94689357368323</v>
+        <v>33.53689324269105</v>
       </c>
       <c r="D69">
-        <v>34.83711116209318</v>
+        <v>33.35656694668612</v>
       </c>
       <c r="E69">
-        <v>35.37871767666554</v>
+        <v>34.02994771833735</v>
       </c>
       <c r="F69">
-        <v>34.64385665586431</v>
+        <v>34.04189553318849</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>34.15476615903826</v>
+        <v>33.36335905401742</v>
       </c>
       <c r="C70">
-        <v>35.3550044679882</v>
+        <v>33.91765347230278</v>
       </c>
       <c r="D70">
-        <v>35.26930435694233</v>
+        <v>33.72969162983327</v>
       </c>
       <c r="E70">
-        <v>36.00774832022639</v>
+        <v>34.4466012089424</v>
       </c>
       <c r="F70">
-        <v>35.17861146329754</v>
+        <v>34.46350951460558</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>34.57144873566244</v>
+        <v>33.58353570599996</v>
       </c>
       <c r="C71">
-        <v>35.73097854424513</v>
+        <v>34.28748073746113</v>
       </c>
       <c r="D71">
-        <v>35.64322531617828</v>
+        <v>34.09692657447905</v>
       </c>
       <c r="E71">
-        <v>36.56683599067365</v>
+        <v>34.85692982215954</v>
       </c>
       <c r="F71">
-        <v>35.66558883816022</v>
+        <v>34.87876182945313</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>34.95854954612845</v>
+        <v>33.79373755619061</v>
       </c>
       <c r="C72">
-        <v>36.07204560021211</v>
+        <v>34.64246019097968</v>
       </c>
       <c r="D72">
-        <v>35.95897508744736</v>
+        <v>34.45518111597959</v>
       </c>
       <c r="E72">
-        <v>37.04818533585107</v>
+        <v>35.25618171839464</v>
       </c>
       <c r="F72">
-        <v>36.09954281221859</v>
+        <v>35.28265815713924</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>35.31287179611444</v>
+        <v>33.9926994615369</v>
       </c>
       <c r="C73">
-        <v>36.37622051441312</v>
+        <v>34.9784142458504</v>
       </c>
       <c r="D73">
-        <v>36.21863659391977</v>
+        <v>34.80079136956368</v>
       </c>
       <c r="E73">
-        <v>37.44859705519559</v>
+        <v>35.63834563076526</v>
       </c>
       <c r="F73">
-        <v>36.47738967831915</v>
+        <v>35.66893586970912</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.63192624381298</v>
+        <v>34.17913352046821</v>
       </c>
       <c r="C74">
-        <v>36.64234926341022</v>
+        <v>35.29111271781691</v>
       </c>
       <c r="D74">
-        <v>36.42578017662834</v>
+        <v>35.12954865566282</v>
       </c>
       <c r="E74">
-        <v>37.76935895790123</v>
+        <v>35.99626115263779</v>
       </c>
       <c r="F74">
-        <v>36.79824312998041</v>
+        <v>36.03022715692599</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>35.91403408614108</v>
+        <v>34.3517713848597</v>
       </c>
       <c r="C75">
-        <v>36.87011512573001</v>
+        <v>35.57654441907039</v>
       </c>
       <c r="D75">
-        <v>36.58493932190671</v>
+        <v>35.43682131370091</v>
       </c>
       <c r="E75">
-        <v>38.01544011548567</v>
+        <v>36.32208579380861</v>
       </c>
       <c r="F75">
-        <v>37.06322572452348</v>
+        <v>36.35857428179403</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>36.15838943896506</v>
+        <v>34.50942167103529</v>
       </c>
       <c r="C76">
-        <v>37.06000236108813</v>
+        <v>35.83122001871943</v>
       </c>
       <c r="D76">
-        <v>36.70113401524068</v>
+        <v>35.71778907451161</v>
       </c>
       <c r="E76">
-        <v>38.19430054053009</v>
+        <v>36.60816940651932</v>
       </c>
       <c r="F76">
-        <v>37.27510968286957</v>
+        <v>36.64632305864401</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>36.3650697694754</v>
+        <v>34.65104026657877</v>
       </c>
       <c r="C77">
-        <v>37.21321939054666</v>
+        <v>36.05246014854021</v>
       </c>
       <c r="D77">
-        <v>36.7794869988484</v>
+        <v>35.9678102075815</v>
       </c>
       <c r="E77">
-        <v>38.31465354788428</v>
+        <v>36.84820442848068</v>
       </c>
       <c r="F77">
-        <v>37.43786557063546</v>
+        <v>36.88725128012781</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>36.53498514065484</v>
+        <v>34.77580480492504</v>
       </c>
       <c r="C78">
-        <v>37.33158822708627</v>
+        <v>36.23861433448192</v>
       </c>
       <c r="D78">
-        <v>36.82494666439052</v>
+        <v>36.18287928252772</v>
       </c>
       <c r="E78">
-        <v>38.38543344571809</v>
+        <v>37.03831898774419</v>
       </c>
       <c r="F78">
-        <v>37.55619835682628</v>
+        <v>37.07761151898637</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>36.66977313847332</v>
+        <v>34.88318148945735</v>
       </c>
       <c r="C79">
-        <v>37.41741067170005</v>
+        <v>36.38917015356707</v>
       </c>
       <c r="D79">
-        <v>36.84210955969576</v>
+        <v>36.36009792851518</v>
       </c>
       <c r="E79">
-        <v>38.41507811738796</v>
+        <v>37.1777065763883</v>
       </c>
       <c r="F79">
-        <v>37.6351323287038</v>
+        <v>37.21671441492418</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>36.77164826693539</v>
+        <v>34.97296944274638</v>
       </c>
       <c r="C80">
-        <v>37.47332384828244</v>
+        <v>36.50473212934471</v>
       </c>
       <c r="D80">
-        <v>36.83512426186332</v>
+        <v>36.4980455598379</v>
       </c>
       <c r="E80">
-        <v>38.4111213821642</v>
+        <v>37.26856213144442</v>
       </c>
       <c r="F80">
-        <v>37.67968039492249</v>
+        <v>37.30684247848224</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>36.84322984982182</v>
+        <v>35.04531153741553</v>
       </c>
       <c r="C81">
-        <v>37.50215767564015</v>
+        <v>36.5868829574303</v>
       </c>
       <c r="D81">
-        <v>36.80765549035041</v>
+        <v>36.59694457816786</v>
       </c>
       <c r="E81">
-        <v>38.38002859876257</v>
+        <v>37.31540977962641</v>
       </c>
       <c r="F81">
-        <v>37.69460855744537</v>
+        <v>37.35258529736468</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>36.88736702087353</v>
+        <v>35.10066931394726</v>
       </c>
       <c r="C82">
-        <v>37.5068050451526</v>
+        <v>36.63796351460824</v>
       </c>
       <c r="D82">
-        <v>36.76288880780827</v>
+        <v>36.65857239745532</v>
       </c>
       <c r="E82">
-        <v>38.32719403684373</v>
+        <v>37.32412244259123</v>
       </c>
       <c r="F82">
-        <v>37.68428903397885</v>
+        <v>37.3598748842995</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>36.90698099608344</v>
+        <v>35.1397688973122</v>
       </c>
       <c r="C83">
-        <v>37.49011237469131</v>
+        <v>36.66081609300726</v>
       </c>
       <c r="D83">
-        <v>36.70356016018438</v>
+        <v>36.68595216139989</v>
       </c>
       <c r="E83">
-        <v>38.25702928861765</v>
+        <v>37.30097557757281</v>
       </c>
       <c r="F83">
-        <v>37.65262568491765</v>
+        <v>37.33505360849531</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>36.90493710648713</v>
+        <v>35.16353101622254</v>
       </c>
       <c r="C84">
-        <v>37.45479462011525</v>
+        <v>36.65853587126129</v>
       </c>
       <c r="D84">
-        <v>36.63199814428677</v>
+        <v>36.68291568480787</v>
       </c>
       <c r="E84">
-        <v>38.17309197010945</v>
+        <v>37.25195703413198</v>
       </c>
       <c r="F84">
-        <v>37.60303283981288</v>
+        <v>37.28417937542131</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>36.8839497957107</v>
+        <v>35.17299884740113</v>
       </c>
       <c r="C85">
-        <v>37.40337557354562</v>
+        <v>36.63425948044063</v>
       </c>
       <c r="D85">
-        <v>36.55017156949454</v>
+        <v>36.65365165349506</v>
       </c>
       <c r="E85">
-        <v>38.07822517656528</v>
+        <v>37.1823652277149</v>
       </c>
       <c r="F85">
-        <v>37.5384497882779</v>
+        <v>37.21262689257932</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>36.84634623134139</v>
+        <v>35.16927383225647</v>
       </c>
       <c r="C86">
-        <v>37.3380641705136</v>
+        <v>36.59100579273888</v>
       </c>
       <c r="D86">
-        <v>36.45970049049411</v>
+        <v>36.60232503532691</v>
       </c>
       <c r="E86">
-        <v>37.97466678917822</v>
+        <v>37.09665519910555</v>
       </c>
       <c r="F86">
-        <v>37.46131715197865</v>
+        <v>37.12491990568858</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>36.7943053698814</v>
+        <v>35.15346453526193</v>
       </c>
       <c r="C87">
-        <v>37.2608713358111</v>
+        <v>36.53157071408881</v>
       </c>
       <c r="D87">
-        <v>36.36195346570183</v>
+        <v>36.53280990755467</v>
       </c>
       <c r="E87">
-        <v>37.86419568864937</v>
+        <v>36.99844368351662</v>
       </c>
       <c r="F87">
-        <v>37.37371842294105</v>
+        <v>37.02473392702937</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>36.72994256452657</v>
+        <v>35.12664963533795</v>
       </c>
       <c r="C88">
-        <v>37.17366629030233</v>
+        <v>36.45846832303847</v>
       </c>
       <c r="D88">
-        <v>36.25812331975066</v>
+        <v>36.44853778833942</v>
       </c>
       <c r="E88">
-        <v>37.74824119208643</v>
+        <v>36.89059774283102</v>
       </c>
       <c r="F88">
-        <v>37.27745949251446</v>
+        <v>36.91498128590466</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>36.65509241175319</v>
+        <v>35.0898535976992</v>
       </c>
       <c r="C89">
-        <v>37.07805738559169</v>
+        <v>36.37390873415135</v>
       </c>
       <c r="D89">
-        <v>36.14919998272018</v>
+        <v>36.35243969410027</v>
       </c>
       <c r="E89">
-        <v>37.62792782438186</v>
+        <v>36.77535437319987</v>
       </c>
       <c r="F89">
-        <v>37.17403595508596</v>
+        <v>36.79793121250593</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>36.57132762254016</v>
+        <v>35.04403245836755</v>
       </c>
       <c r="C90">
-        <v>36.97541969354019</v>
+        <v>36.27980127805617</v>
       </c>
       <c r="D90">
-        <v>36.03600783017943</v>
+        <v>36.24695238719575</v>
       </c>
       <c r="E90">
-        <v>37.50414459608103</v>
+        <v>36.65444139041204</v>
       </c>
       <c r="F90">
-        <v>37.06468594277196</v>
+        <v>36.67533205880882</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>36.47999320246504</v>
+        <v>34.99006708991353</v>
       </c>
       <c r="C91">
-        <v>36.86691733213774</v>
+        <v>36.17777331715737</v>
       </c>
       <c r="D91">
-        <v>35.91923393121282</v>
+        <v>36.13406171667418</v>
       </c>
       <c r="E91">
-        <v>37.37759033977284</v>
+        <v>36.52918603231349</v>
       </c>
       <c r="F91">
-        <v>36.95042824897038</v>
+        <v>36.54852188831288</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>36.38223467132583</v>
+        <v>34.92876166788006</v>
       </c>
       <c r="C92">
-        <v>36.75353394931295</v>
+        <v>36.06919779102441</v>
       </c>
       <c r="D92">
-        <v>35.79945209783423</v>
+        <v>36.01536271260231</v>
       </c>
       <c r="E92">
-        <v>37.24882123104252</v>
+        <v>36.40060505995417</v>
       </c>
       <c r="F92">
-        <v>36.83210574904902</v>
+        <v>36.41852088575204</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>36.2790206365239</v>
+        <v>34.86084548454782</v>
       </c>
       <c r="C93">
-        <v>36.63609558459991</v>
+        <v>35.95522405579511</v>
       </c>
       <c r="D93">
-        <v>35.67714263567443</v>
+        <v>35.89212323900831</v>
       </c>
       <c r="E93">
-        <v>37.11828037755315</v>
+        <v>36.26947624851214</v>
       </c>
       <c r="F93">
-        <v>36.71041431719382</v>
+        <v>36.2861050412676</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>36.17117282713659</v>
+        <v>34.78697681440217</v>
       </c>
       <c r="C94">
-        <v>36.5152922478819</v>
+        <v>35.83680873129831</v>
       </c>
       <c r="D94">
-        <v>35.55270619107298</v>
+        <v>35.76534411498597</v>
       </c>
       <c r="E94">
-        <v>36.98632068798926</v>
+        <v>36.13639557224072</v>
       </c>
       <c r="F94">
-        <v>36.58592731561635</v>
+        <v>36.1518648888153</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>36.05938846536517</v>
+        <v>34.70774789067</v>
       </c>
       <c r="C95">
-        <v>36.39169909318647</v>
+        <v>35.71474483661436</v>
       </c>
       <c r="D95">
-        <v>35.42647772196958</v>
+        <v>35.63581177442514</v>
       </c>
       <c r="E95">
-        <v>36.85322488106004</v>
+        <v>36.00182035260972</v>
       </c>
       <c r="F95">
-        <v>36.45911838760278</v>
+        <v>36.0162500719823</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>35.94425514669614</v>
+        <v>34.62369037108724</v>
       </c>
       <c r="C96">
-        <v>36.26579714890032</v>
+        <v>35.5896879686815</v>
       </c>
       <c r="D96">
-        <v>35.29874059812683</v>
+        <v>35.50414249485777</v>
       </c>
       <c r="E96">
-        <v>36.719219681418</v>
+        <v>35.86610268718326</v>
       </c>
       <c r="F96">
-        <v>36.33038147140014</v>
+        <v>35.87960371060606</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>35.82627066222408</v>
+        <v>34.53528087626744</v>
       </c>
       <c r="C97">
-        <v>36.13798687439306</v>
+        <v>35.46217902673664</v>
       </c>
       <c r="D97">
-        <v>35.16973303321213</v>
+        <v>35.37081842651418</v>
       </c>
       <c r="E97">
-        <v>36.58448823568261</v>
+        <v>35.72951436431006</v>
       </c>
       <c r="F97">
-        <v>36.2000432454269</v>
+        <v>35.74218812913134</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>35.70585677361024</v>
+        <v>34.44294638066608</v>
       </c>
       <c r="C98">
-        <v>36.00860053742853</v>
+        <v>35.33266371660996</v>
       </c>
       <c r="D98">
-        <v>35.03965570622229</v>
+        <v>35.23621670563401</v>
       </c>
       <c r="E98">
-        <v>36.44917910313019</v>
+        <v>35.59226613291755</v>
       </c>
       <c r="F98">
-        <v>36.06837434990553</v>
+        <v>35.60420453809892</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>35.58337072358074</v>
+        <v>34.34706930623236</v>
       </c>
       <c r="C99">
-        <v>35.87791423698638</v>
+        <v>35.20150914267913</v>
       </c>
       <c r="D99">
-        <v>34.90867857712671</v>
+        <v>35.10063260351259</v>
       </c>
       <c r="E99">
-        <v>36.31341275362779</v>
+        <v>35.45452191761398</v>
       </c>
       <c r="F99">
-        <v>35.93559993577828</v>
+        <v>35.46580766342733</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>35.45911501288017</v>
+        <v>34.24799220506318</v>
       </c>
       <c r="C100">
-        <v>35.74615761531239</v>
+        <v>35.06901778093983</v>
       </c>
       <c r="D100">
-        <v>34.77694534855832</v>
+        <v>34.96429749366317</v>
       </c>
       <c r="E100">
-        <v>36.17728711651689</v>
+        <v>35.31640983094021</v>
       </c>
       <c r="F100">
-        <v>35.80190803545317</v>
+        <v>35.32711690149181</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>35.33334864090294</v>
+        <v>34.14602202291816</v>
       </c>
       <c r="C101">
-        <v>35.61352270792612</v>
+        <v>34.93543892631507</v>
       </c>
       <c r="D101">
-        <v>34.64457790564589</v>
+        <v>34.82739311746353</v>
       </c>
       <c r="E101">
-        <v>36.0408823969117</v>
+        <v>35.17803034510501</v>
       </c>
       <c r="F101">
-        <v>35.66745612724657</v>
+        <v>35.18822466528695</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>35.20629212849395</v>
+        <v>34.04143397787637</v>
       </c>
       <c r="C102">
-        <v>35.48016949023763</v>
+        <v>34.80097819443144</v>
       </c>
       <c r="D102">
-        <v>34.51168026452154</v>
+        <v>34.69006244034905</v>
       </c>
       <c r="E102">
-        <v>35.90426472957646</v>
+        <v>35.03946263482512</v>
       </c>
       <c r="F102">
-        <v>35.53237641484748</v>
+        <v>35.0492027285946</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>35.07813311270826</v>
+        <v>33.93447505001506</v>
       </c>
       <c r="C103">
-        <v>35.34623129652415</v>
+        <v>34.66580533598196</v>
       </c>
       <c r="D103">
-        <v>34.37834131240563</v>
+        <v>34.55241822034361</v>
       </c>
       <c r="E103">
-        <v>35.76748867904576</v>
+        <v>34.90076928759098</v>
       </c>
       <c r="F103">
-        <v>35.3967801919705</v>
+        <v>34.9101069747289</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>34.94903155124816</v>
+        <v>33.82536707436151</v>
       </c>
       <c r="C104">
-        <v>35.21181940231512</v>
+        <v>34.53006066653965</v>
       </c>
       <c r="D104">
-        <v>34.24463691723412</v>
+        <v>34.41454961212371</v>
       </c>
       <c r="E104">
-        <v>35.63059937949323</v>
+        <v>34.76199997153236</v>
       </c>
       <c r="F104">
-        <v>35.26076081201149</v>
+        <v>34.77098105252833</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>34.81912477463814</v>
+        <v>33.71430950338657</v>
       </c>
       <c r="C105">
-        <v>35.0770268652771</v>
+        <v>34.39386033099078</v>
       </c>
       <c r="D105">
-        <v>34.11063195257229</v>
+        <v>34.27652727462054</v>
       </c>
       <c r="E105">
-        <v>35.49363435002986</v>
+        <v>34.62319435570547</v>
       </c>
       <c r="F105">
-        <v>35.12439678182296</v>
+        <v>34.63185928866363</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>34.68853109968084</v>
+        <v>33.60148186350001</v>
       </c>
       <c r="C106">
-        <v>34.94193159114017</v>
+        <v>34.25730060321639</v>
       </c>
       <c r="D106">
-        <v>33.97638196260406</v>
+        <v>34.13840740331405</v>
       </c>
       <c r="E106">
-        <v>35.35662443457346</v>
+        <v>34.48438428707276</v>
       </c>
       <c r="F106">
-        <v>34.98775464878722</v>
+        <v>34.49276875344678</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>34.55735240304467</v>
+        <v>33.48704592757197</v>
       </c>
       <c r="C107">
-        <v>34.8065990858145</v>
+        <v>34.12046140420085</v>
       </c>
       <c r="D107">
-        <v>33.84193493814729</v>
+        <v>34.00023478383439</v>
       </c>
       <c r="E107">
-        <v>35.21959541781408</v>
+        <v>34.34559534179322</v>
       </c>
       <c r="F107">
-        <v>34.85089096873094</v>
+        <v>34.35373075689495</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>34.42567639209044</v>
+        <v>33.37114764482604</v>
       </c>
       <c r="C108">
-        <v>34.67108450153324</v>
+        <v>33.98340918325245</v>
       </c>
       <c r="D108">
-        <v>33.70733203403883</v>
+        <v>33.86204521563891</v>
       </c>
       <c r="E108">
-        <v>35.08256896668637</v>
+        <v>34.20684807530021</v>
       </c>
       <c r="F108">
-        <v>34.71385389792173</v>
+        <v>34.21476208904267</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>34.29357875379969</v>
+        <v>33.25391883187156</v>
       </c>
       <c r="C109">
-        <v>34.53543431275264</v>
+        <v>33.84619927865392</v>
       </c>
       <c r="D109">
-        <v>33.57260922993802</v>
+        <v>33.72386739063317</v>
       </c>
       <c r="E109">
-        <v>34.94556331638753</v>
+        <v>34.06815909528328</v>
       </c>
       <c r="F109">
-        <v>34.57668451292781</v>
+        <v>34.07587606155847</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>34.16112497545276</v>
+        <v>33.1354786840002</v>
       </c>
       <c r="C110">
-        <v>34.39968782862147</v>
+        <v>33.70887785058048</v>
       </c>
       <c r="D110">
-        <v>33.43779769677096</v>
+        <v>33.58572436604727</v>
       </c>
       <c r="E110">
-        <v>34.80859394344249</v>
+        <v>33.9295419139767</v>
       </c>
       <c r="F110">
-        <v>34.43941786193095</v>
+        <v>33.93708329468988</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>34.02837199019331</v>
+        <v>33.0159352435657</v>
       </c>
       <c r="C111">
-        <v>34.26387817329555</v>
+        <v>33.5714834634168</v>
       </c>
       <c r="D111">
-        <v>33.30292407338242</v>
+        <v>33.44763471494527</v>
       </c>
       <c r="E111">
-        <v>34.67167383736533</v>
+        <v>33.79100756990028</v>
       </c>
       <c r="F111">
-        <v>34.30208388997942</v>
+        <v>33.79839227579968</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>33.89536961066611</v>
+        <v>32.8953864661899</v>
       </c>
       <c r="C112">
-        <v>34.12803342586012</v>
+        <v>33.43404839175093</v>
       </c>
       <c r="D112">
-        <v>33.16801208034796</v>
+        <v>33.30961342183708</v>
       </c>
       <c r="E112">
-        <v>34.53481397744164</v>
+        <v>33.65256508801008</v>
       </c>
       <c r="F112">
-        <v>34.16470831938516</v>
+        <v>33.65980978007511</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>33.76216137981589</v>
+        <v>32.77392123268213</v>
       </c>
       <c r="C113">
-        <v>33.99217744317365</v>
+        <v>33.29659968765071</v>
       </c>
       <c r="D113">
-        <v>33.03308174993563</v>
+        <v>33.17167260792247</v>
       </c>
       <c r="E113">
-        <v>34.39802368895093</v>
+        <v>33.5142218508817</v>
       </c>
       <c r="F113">
-        <v>34.02731329292155</v>
+        <v>33.52134120659746</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>33.62878521270719</v>
+        <v>32.65162031954685</v>
       </c>
       <c r="C114">
-        <v>33.85633051822099</v>
+        <v>33.15916006036942</v>
       </c>
       <c r="D114">
-        <v>32.89815077245704</v>
+        <v>33.03382220509867</v>
       </c>
       <c r="E114">
-        <v>34.26131090871607</v>
+        <v>33.37598389913882</v>
       </c>
       <c r="F114">
-        <v>33.8899179079267</v>
+        <v>33.38299089100401</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>33.49527381239161</v>
+        <v>32.52855721986671</v>
       </c>
       <c r="C115">
-        <v>33.72050999939199</v>
+        <v>33.02174859430617</v>
       </c>
       <c r="D115">
-        <v>32.76323455177723</v>
+        <v>32.8960703149027</v>
       </c>
       <c r="E115">
-        <v>34.12468244419723</v>
+        <v>33.237856228405</v>
       </c>
       <c r="F115">
-        <v>33.75253866105002</v>
+        <v>33.24476227235534</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>33.36165598653968</v>
+        <v>32.40479891963948</v>
       </c>
       <c r="C116">
-        <v>33.58473065089382</v>
+        <v>32.88438134118667</v>
       </c>
       <c r="D116">
-        <v>32.6283465505436</v>
+        <v>32.75842348124142</v>
       </c>
       <c r="E116">
-        <v>33.98814411463126</v>
+        <v>33.09984300672124</v>
       </c>
       <c r="F116">
-        <v>33.61518983076461</v>
+        <v>33.1066582329827</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>33.22795712835926</v>
+        <v>32.28040653152231</v>
       </c>
       <c r="C117">
-        <v>33.44900509864887</v>
+        <v>32.74707181574041</v>
       </c>
       <c r="D117">
-        <v>32.49349872907671</v>
+        <v>32.62088703881663</v>
       </c>
       <c r="E117">
-        <v>33.85170090454889</v>
+        <v>32.96194763123171</v>
       </c>
       <c r="F117">
-        <v>33.47788378369602</v>
+        <v>32.96868103294601</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>33.09419937220574</v>
+        <v>32.15543587636078</v>
       </c>
       <c r="C118">
-        <v>33.31334415843799</v>
+        <v>32.60983154684435</v>
       </c>
       <c r="D118">
-        <v>32.35870151682755</v>
+        <v>32.48346533862189</v>
       </c>
       <c r="E118">
-        <v>33.71535709346512</v>
+        <v>32.82417303059721</v>
       </c>
       <c r="F118">
-        <v>33.34063127158295</v>
+        <v>32.83083248457394</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>32.9604028419369</v>
+        <v>32.0299379986107</v>
       </c>
       <c r="C119">
-        <v>33.17775711375155</v>
+        <v>32.47267022402218</v>
       </c>
       <c r="D119">
-        <v>32.22396412374592</v>
+        <v>32.34616195270528</v>
       </c>
       <c r="E119">
-        <v>33.57911634217903</v>
+        <v>32.68652154754882</v>
       </c>
       <c r="F119">
-        <v>33.20344165903023</v>
+        <v>32.69311409459305</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>32.82658453285728</v>
+        <v>31.9039596235236</v>
       </c>
       <c r="C120">
-        <v>33.04225195469864</v>
+        <v>32.33559604613313</v>
       </c>
       <c r="D120">
-        <v>32.08929469556159</v>
+        <v>32.20897982624568</v>
       </c>
       <c r="E120">
-        <v>33.44298184416306</v>
+        <v>32.54899513605771</v>
       </c>
       <c r="F120">
-        <v>33.06632311608344</v>
+        <v>32.55552700024651</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>32.69276058715646</v>
+        <v>31.77754358478684</v>
       </c>
       <c r="C121">
-        <v>32.90683555197698</v>
+        <v>32.19861600659112</v>
       </c>
       <c r="D121">
-        <v>31.95470034301263</v>
+        <v>32.07192138012108</v>
       </c>
       <c r="E121">
-        <v>33.30695628689129</v>
+        <v>32.41159543008101</v>
       </c>
       <c r="F121">
-        <v>32.92928274577211</v>
+        <v>32.41807212758941</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>32.55894425671269</v>
+        <v>31.65072917430759</v>
       </c>
       <c r="C122">
-        <v>32.77151382929741</v>
+        <v>32.06173596283261</v>
       </c>
       <c r="D122">
-        <v>31.82018739739443</v>
+        <v>31.93498860268377</v>
       </c>
       <c r="E122">
-        <v>33.17104212599187</v>
+        <v>32.27432377525656</v>
       </c>
       <c r="F122">
-        <v>32.79232682365799</v>
+        <v>32.28075021886787</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>32.42514817268074</v>
+        <v>31.52355248835626</v>
       </c>
       <c r="C123">
-        <v>32.63629189943575</v>
+        <v>31.92496090324784</v>
       </c>
       <c r="D123">
-        <v>31.685761439625</v>
+        <v>31.79818312507026</v>
       </c>
       <c r="E123">
-        <v>33.03524135102012</v>
+        <v>32.13718129407476</v>
       </c>
       <c r="F123">
-        <v>32.65546076481948</v>
+        <v>32.14356186425678</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>32.2913828422028</v>
+        <v>31.39604672047313</v>
       </c>
       <c r="C124">
-        <v>32.50117418456152</v>
+        <v>31.78829507447471</v>
       </c>
       <c r="D124">
-        <v>31.55142741462662</v>
+        <v>31.66150627556697</v>
       </c>
       <c r="E124">
-        <v>32.89955583906563</v>
+        <v>32.00016894262204</v>
       </c>
       <c r="F124">
-        <v>32.51868946725786</v>
+        <v>32.00650752871131</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>32.15765797702339</v>
+        <v>31.26824242809732</v>
       </c>
       <c r="C125">
-        <v>32.36616449906191</v>
+        <v>31.65174210679534</v>
       </c>
       <c r="D125">
-        <v>31.41718975496104</v>
+        <v>31.52495914751926</v>
       </c>
       <c r="E125">
-        <v>32.76398708364</v>
+        <v>31.86328750601186</v>
       </c>
       <c r="F125">
-        <v>32.38201710608626</v>
+        <v>31.86958759118329</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>32.02398201185191</v>
+        <v>31.1401677732381</v>
       </c>
       <c r="C126">
-        <v>32.23126614902434</v>
+        <v>31.51530508297741</v>
       </c>
       <c r="D126">
-        <v>31.28305236616103</v>
+        <v>31.38854262615152</v>
       </c>
       <c r="E126">
-        <v>32.6285364784231</v>
+        <v>31.72653763559522</v>
       </c>
       <c r="F126">
-        <v>32.24544747940126</v>
+        <v>31.73280232721311</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>31.8903625501602</v>
+        <v>31.01184872718643</v>
       </c>
       <c r="C127">
-        <v>32.09648200528381</v>
+        <v>31.37898662860228</v>
       </c>
       <c r="D127">
-        <v>31.14901875742889</v>
+        <v>31.25225746397485</v>
       </c>
       <c r="E127">
-        <v>32.49320516000397</v>
+        <v>31.58991987844827</v>
       </c>
       <c r="F127">
-        <v>32.10898383836786</v>
+        <v>31.59615194861592</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>31.75680642136907</v>
+        <v>30.88330927171322</v>
       </c>
       <c r="C128">
-        <v>31.96181457246697</v>
+        <v>31.24278899061495</v>
       </c>
       <c r="D128">
-        <v>31.01509203840557</v>
+        <v>31.11610424897023</v>
       </c>
       <c r="E128">
-        <v>32.35799415358189</v>
+        <v>31.45343467274489</v>
       </c>
       <c r="F128">
-        <v>31.97262909511259</v>
+        <v>31.45963660633412</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>31.62331971893418</v>
+        <v>30.75457157194368</v>
       </c>
       <c r="C129">
-        <v>31.82726603251534</v>
+        <v>31.10671406665877</v>
       </c>
       <c r="D129">
-        <v>30.88127497949164</v>
+        <v>30.98008349503925</v>
       </c>
       <c r="E129">
-        <v>32.2229043297211</v>
+        <v>31.31708237998987</v>
       </c>
       <c r="F129">
-        <v>31.83638579900359</v>
+        <v>31.32325640332653</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>31.48990800907726</v>
+        <v>30.62565611346785</v>
       </c>
       <c r="C130">
-        <v>31.69283828795816</v>
+        <v>30.97076347527993</v>
       </c>
       <c r="D130">
-        <v>30.74757006706336</v>
+        <v>30.84419557785268</v>
       </c>
       <c r="E130">
-        <v>32.08793645866199</v>
+        <v>31.18086329458493</v>
       </c>
       <c r="F130">
-        <v>31.70025619997724</v>
+        <v>31.18701140434181</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>31.35657618106258</v>
+        <v>30.49658190683545</v>
       </c>
       <c r="C131">
-        <v>31.55853298767456</v>
+        <v>30.83493858401773</v>
       </c>
       <c r="D131">
-        <v>30.61397951222089</v>
+        <v>30.70844082657128</v>
       </c>
       <c r="E131">
-        <v>31.95309120461473</v>
+        <v>31.04477765254243</v>
       </c>
       <c r="F131">
-        <v>31.56424230955134</v>
+        <v>31.05090164492399</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>31.2233287591337</v>
+        <v>30.36736649404263</v>
       </c>
       <c r="C132">
-        <v>31.42435156721664</v>
+        <v>30.69924056829619</v>
       </c>
       <c r="D132">
-        <v>30.48050528485857</v>
+        <v>30.57281946805897</v>
       </c>
       <c r="E132">
-        <v>31.8183691552826</v>
+        <v>30.90882564174396</v>
       </c>
       <c r="F132">
-        <v>31.42834589125484</v>
+        <v>30.91492713165739</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>31.09016969396509</v>
+        <v>30.23802628934269</v>
       </c>
       <c r="C133">
-        <v>31.29029526267964</v>
+        <v>30.56367042293667</v>
       </c>
       <c r="D133">
-        <v>30.34714916140029</v>
+        <v>30.43733169188746</v>
       </c>
       <c r="E133">
-        <v>31.6837708132543</v>
+        <v>30.77300740968738</v>
       </c>
       <c r="F133">
-        <v>31.29256853855799</v>
+        <v>30.77908785051914</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>30.95710260756178</v>
+        <v>30.10857637927728</v>
       </c>
       <c r="C134">
-        <v>31.15636515377547</v>
+        <v>30.42822898345108</v>
       </c>
       <c r="D134">
-        <v>30.21391276327694</v>
+        <v>30.30197762701338</v>
       </c>
       <c r="E134">
-        <v>31.54929662142204</v>
+        <v>30.63732306453019</v>
       </c>
       <c r="F134">
-        <v>31.15691164194647</v>
+        <v>30.64338376786962</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>30.82413072238554</v>
+        <v>29.97903095391992</v>
       </c>
       <c r="C135">
-        <v>31.02256216965241</v>
+        <v>30.29291701166871</v>
       </c>
       <c r="D135">
-        <v>30.08079745364748</v>
+        <v>30.16675737182698</v>
       </c>
       <c r="E135">
-        <v>31.4149469559913</v>
+        <v>30.50177268497056</v>
       </c>
       <c r="F135">
-        <v>31.02137645807963</v>
+        <v>30.50781483342096</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>30.69125696365305</v>
+        <v>29.84940305410014</v>
       </c>
       <c r="C136">
-        <v>30.88888713157086</v>
+        <v>30.15773506753736</v>
       </c>
       <c r="D136">
-        <v>29.94780460037378</v>
+        <v>30.0316709849316</v>
       </c>
       <c r="E136">
-        <v>31.28072214334008</v>
+        <v>30.36635632178536</v>
       </c>
       <c r="F136">
-        <v>30.88596408625255</v>
+        <v>30.37238098429676</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>30.55848397014547</v>
+        <v>29.71970493675589</v>
       </c>
       <c r="C137">
-        <v>30.75534073829644</v>
+        <v>30.02268372613447</v>
       </c>
       <c r="D137">
-        <v>29.81493534307853</v>
+        <v>29.89671850998952</v>
       </c>
       <c r="E137">
-        <v>31.14662246156348</v>
+        <v>30.23107400262701</v>
       </c>
       <c r="F137">
-        <v>30.75067550986729</v>
+        <v>30.23708214643723</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>30.42581414265285</v>
+        <v>29.58994792412484</v>
       </c>
       <c r="C138">
-        <v>30.62192362155256</v>
+        <v>29.88776336382413</v>
       </c>
       <c r="D138">
-        <v>29.68219069790361</v>
+        <v>29.76189995355396</v>
       </c>
       <c r="E138">
-        <v>31.01264814743738</v>
+        <v>30.09592573452214</v>
       </c>
       <c r="F138">
-        <v>30.61551159976272</v>
+        <v>30.10191823569919</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>30.29324964634028</v>
+        <v>29.46014263144347</v>
       </c>
       <c r="C139">
-        <v>30.48863630454879</v>
+        <v>29.75297437190868</v>
       </c>
       <c r="D139">
-        <v>29.54957168834403</v>
+        <v>29.6272153169358</v>
       </c>
       <c r="E139">
-        <v>30.87879940402774</v>
+        <v>29.96091150852442</v>
       </c>
       <c r="F139">
-        <v>30.48047312656818</v>
+        <v>29.96688916386459</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>30.16079245892853</v>
+        <v>29.33029892045618</v>
       </c>
       <c r="C140">
-        <v>30.35547926609012</v>
+        <v>29.61831701547085</v>
       </c>
       <c r="D140">
-        <v>29.4170790737713</v>
+        <v>29.49266456999251</v>
       </c>
       <c r="E140">
-        <v>30.74507639943755</v>
+        <v>29.82603130174441</v>
       </c>
       <c r="F140">
-        <v>30.34556078058553</v>
+        <v>29.83199483006241</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>30.02844436083054</v>
+        <v>29.20042603567861</v>
       </c>
       <c r="C141">
-        <v>30.22245289606994</v>
+        <v>29.48379153778007</v>
       </c>
       <c r="D141">
-        <v>29.28471366706135</v>
+        <v>29.35824767714606</v>
       </c>
       <c r="E141">
-        <v>30.6114792789147</v>
+        <v>29.69128507456769</v>
       </c>
       <c r="F141">
-        <v>30.21077516853236</v>
+        <v>29.69723513645347</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>29.89620697424355</v>
+        <v>29.07053258700299</v>
       </c>
       <c r="C142">
-        <v>30.0895575459788</v>
+        <v>29.34939811984271</v>
       </c>
       <c r="D142">
-        <v>29.15247615288678</v>
+        <v>29.22396458292669</v>
       </c>
       <c r="E142">
-        <v>30.47800815710054</v>
+        <v>29.55667278580361</v>
       </c>
       <c r="F142">
-        <v>30.07611683582975</v>
+        <v>29.56260997517307</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>29.76408176653075</v>
+        <v>28.9406266610104</v>
       </c>
       <c r="C143">
-        <v>29.95679350405635</v>
+        <v>29.21513691088478</v>
       </c>
       <c r="D143">
-        <v>29.02036712043238</v>
+        <v>29.0898152240617</v>
       </c>
       <c r="E143">
-        <v>30.34466313193318</v>
+        <v>29.42219437121376</v>
       </c>
       <c r="F143">
-        <v>29.94158625958862</v>
+        <v>29.42811923550634</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>29.63207006896207</v>
+        <v>28.8107157932824</v>
       </c>
       <c r="C144">
-        <v>29.82416102252909</v>
+        <v>29.08100802186412</v>
       </c>
       <c r="D144">
-        <v>28.88838713681183</v>
+        <v>28.9557995267841</v>
       </c>
       <c r="E144">
-        <v>30.21144427610867</v>
+        <v>29.28784977190728</v>
       </c>
       <c r="F144">
-        <v>29.80718386692351</v>
+        <v>29.29376280627032</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>29.50017309448486</v>
+        <v>28.68080707196174</v>
       </c>
       <c r="C145">
-        <v>29.69166031028764</v>
+        <v>28.94701153849505</v>
       </c>
       <c r="D145">
-        <v>28.75653668893538</v>
+        <v>28.82191741020641</v>
       </c>
       <c r="E145">
-        <v>30.07835164821674</v>
+        <v>29.15363891094036</v>
       </c>
       <c r="F145">
-        <v>29.67291003123183</v>
+        <v>29.15954056817698</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>29.36839194098672</v>
+        <v>28.55090711114603</v>
       </c>
       <c r="C146">
-        <v>29.55929154639808</v>
+        <v>28.81314752279831</v>
       </c>
       <c r="D146">
-        <v>28.62481622828312</v>
+        <v>28.68816878655439</v>
       </c>
       <c r="E146">
-        <v>29.94538528783522</v>
+        <v>29.01956170945352</v>
       </c>
       <c r="F146">
-        <v>29.53876508273569</v>
+        <v>29.02545240429185</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>29.23672761498481</v>
+        <v>28.42102213351043</v>
       </c>
       <c r="C147">
-        <v>29.42705487661699</v>
+        <v>28.67941600617328</v>
       </c>
       <c r="D147">
-        <v>28.49322616077919</v>
+        <v>28.55455356340723</v>
       </c>
       <c r="E147">
-        <v>29.81254522203952</v>
+        <v>28.88561808206946</v>
       </c>
       <c r="F147">
-        <v>29.40474931139017</v>
+        <v>28.89149819218077</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>29.10518102454102</v>
+        <v>28.29115796141334</v>
       </c>
       <c r="C148">
-        <v>29.29495042454699</v>
+        <v>28.54581701231037</v>
       </c>
       <c r="D148">
-        <v>28.36176684253433</v>
+        <v>28.42107164218535</v>
       </c>
       <c r="E148">
-        <v>29.67983146389808</v>
+        <v>28.7518079362904</v>
       </c>
       <c r="F148">
-        <v>29.27086296968205</v>
+        <v>28.75767780939686</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>28.97375300544985</v>
+        <v>28.16132007166269</v>
       </c>
       <c r="C149">
-        <v>29.1629782857723</v>
+        <v>28.41235053250992</v>
       </c>
       <c r="D149">
-        <v>28.23043861577305</v>
+        <v>28.28772292135595</v>
       </c>
       <c r="E149">
-        <v>29.54724401595039</v>
+        <v>28.61813117710757</v>
       </c>
       <c r="F149">
-        <v>29.13710627979899</v>
+        <v>28.62399113148873</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>28.84244430961095</v>
+        <v>28.03151360366879</v>
       </c>
       <c r="C150">
-        <v>29.03113853903049</v>
+        <v>28.27901655412449</v>
       </c>
       <c r="D150">
-        <v>28.09924176808624</v>
+        <v>28.15450729425334</v>
       </c>
       <c r="E150">
-        <v>29.41478286977949</v>
+        <v>28.48458770451297</v>
       </c>
       <c r="F150">
-        <v>29.00347943234453</v>
+        <v>28.49043803311841</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>28.7112556284457</v>
+        <v>27.90174339229638</v>
       </c>
       <c r="C151">
-        <v>28.89943124043829</v>
+        <v>28.14581504234383</v>
       </c>
       <c r="D151">
-        <v>27.96817656798397</v>
+        <v>28.02142465182722</v>
       </c>
       <c r="E151">
-        <v>29.28244800842459</v>
+        <v>28.35117741620238</v>
       </c>
       <c r="F151">
-        <v>28.86998259368605</v>
+        <v>28.35701838796296</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>28.58018758503038</v>
+        <v>27.7720139851978</v>
       </c>
       <c r="C152">
-        <v>28.76785643204059</v>
+        <v>28.01274595485297</v>
       </c>
       <c r="D152">
-        <v>27.83724326437576</v>
+        <v>27.88847488154478</v>
       </c>
       <c r="E152">
-        <v>29.15023940597779</v>
+        <v>28.21790020569407</v>
       </c>
       <c r="F152">
-        <v>28.73661590430151</v>
+        <v>28.22373206892649</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>28.44924074975344</v>
+        <v>27.64232966134331</v>
       </c>
       <c r="C153">
-        <v>28.63641413899511</v>
+        <v>27.87980923689442</v>
       </c>
       <c r="D153">
-        <v>27.70644205889219</v>
+        <v>27.75565786876377</v>
       </c>
       <c r="E153">
-        <v>29.01815702946162</v>
+        <v>28.08475596557381</v>
       </c>
       <c r="F153">
-        <v>28.6033794843849</v>
+        <v>28.09057894879708</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>28.31841563892368</v>
+        <v>27.5126944535043</v>
       </c>
       <c r="C154">
-        <v>28.50510437434806</v>
+        <v>27.74700482649747</v>
       </c>
       <c r="D154">
-        <v>27.57577315147557</v>
+        <v>27.62297349674743</v>
       </c>
       <c r="E154">
-        <v>28.88620083871835</v>
+        <v>27.95174458511475</v>
       </c>
       <c r="F154">
-        <v>28.47027343343311</v>
+        <v>27.95755889882418</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>28.18771272295417</v>
+        <v>27.38311215651089</v>
       </c>
       <c r="C155">
-        <v>28.37392713879688</v>
+        <v>27.61433265239013</v>
       </c>
       <c r="D155">
-        <v>27.44523671137435</v>
+        <v>27.49042164696353</v>
       </c>
       <c r="E155">
-        <v>28.75437078757721</v>
+        <v>27.81886595161686</v>
       </c>
       <c r="F155">
-        <v>28.33729783336379</v>
+        <v>27.82467179096324</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>28.05713242917237</v>
+        <v>27.25358635377945</v>
       </c>
       <c r="C156">
-        <v>28.24288242287748</v>
+        <v>27.48179263842836</v>
       </c>
       <c r="D156">
-        <v>27.31483288776837</v>
+        <v>27.35800219960256</v>
       </c>
       <c r="E156">
-        <v>28.62266682427047</v>
+        <v>27.68611995128683</v>
       </c>
       <c r="F156">
-        <v>28.20445275000399</v>
+        <v>27.69191749564273</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>27.92667514488405</v>
+        <v>27.12412041772209</v>
       </c>
       <c r="C157">
-        <v>28.11197020775085</v>
+        <v>27.34938470157467</v>
       </c>
       <c r="D157">
-        <v>27.18456181741682</v>
+        <v>27.22571503330855</v>
       </c>
       <c r="E157">
-        <v>28.49108889189083</v>
+        <v>27.55350646744664</v>
       </c>
       <c r="F157">
-        <v>28.07173823384882</v>
+        <v>27.55929588365711</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>27.7963412228307</v>
+        <v>26.9947175388175</v>
       </c>
       <c r="C158">
-        <v>27.98119046616842</v>
+        <v>27.21710875318817</v>
       </c>
       <c r="D158">
-        <v>27.05442361723442</v>
+        <v>27.0935600258977</v>
       </c>
       <c r="E158">
-        <v>28.35963692921882</v>
+        <v>27.42102538307464</v>
       </c>
       <c r="F158">
-        <v>27.9391543227932</v>
+        <v>27.42680682521837</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>27.66613098038786</v>
+        <v>26.86538072115232</v>
       </c>
       <c r="C159">
-        <v>27.85054316354633</v>
+        <v>27.08496470123033</v>
       </c>
       <c r="D159">
-        <v>26.92441839380641</v>
+        <v>26.96153705387402</v>
       </c>
       <c r="E159">
-        <v>28.22831087059845</v>
+        <v>27.28867657905715</v>
       </c>
       <c r="F159">
-        <v>27.80670104169344</v>
+        <v>27.29445019027705</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>27.53604470702626</v>
+        <v>26.73611281059984</v>
       </c>
       <c r="C160">
-        <v>27.72002825831917</v>
+        <v>26.95295244741156</v>
       </c>
       <c r="D160">
-        <v>26.79454623953546</v>
+        <v>26.82964599314575</v>
       </c>
       <c r="E160">
-        <v>28.09711064705881</v>
+        <v>27.15645993555792</v>
       </c>
       <c r="F160">
-        <v>27.67437840468811</v>
+        <v>27.16222584867353</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>27.40608266177471</v>
+        <v>26.60691648908065</v>
       </c>
       <c r="C161">
-        <v>27.58964570318778</v>
+        <v>26.82107189155318</v>
       </c>
       <c r="D161">
-        <v>26.66480723413511</v>
+        <v>26.69788671866301</v>
       </c>
       <c r="E161">
-        <v>27.96603618582164</v>
+        <v>27.02437533158036</v>
       </c>
       <c r="F161">
-        <v>27.54218641476631</v>
+        <v>27.03013367015059</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>27.27624507984761</v>
+        <v>26.47779429978383</v>
       </c>
       <c r="C162">
-        <v>27.45939544509638</v>
+        <v>26.6893229287738</v>
       </c>
       <c r="D162">
-        <v>26.53520145113828</v>
+        <v>26.56625910486731</v>
       </c>
       <c r="E162">
-        <v>27.83508741142514</v>
+        <v>26.89242264534102</v>
       </c>
       <c r="F162">
-        <v>27.41012506783704</v>
+        <v>26.89817352436051</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>27.14653217120642</v>
+        <v>26.34874864162567</v>
       </c>
       <c r="C163">
-        <v>27.32927742656181</v>
+        <v>26.557705452195</v>
       </c>
       <c r="D163">
-        <v>26.40572894816736</v>
+        <v>26.43476302558786</v>
       </c>
       <c r="E163">
-        <v>27.7042642452528</v>
+        <v>26.76060175430003</v>
       </c>
       <c r="F163">
-        <v>27.2781943486386</v>
+        <v>26.76634528085972</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>27.01694412483267</v>
+        <v>26.2197817911548</v>
       </c>
       <c r="C164">
-        <v>27.19929158537722</v>
+        <v>26.42621935193882</v>
       </c>
       <c r="D164">
-        <v>26.27638977927137</v>
+        <v>26.30339835427041</v>
       </c>
       <c r="E164">
-        <v>27.57356660643043</v>
+        <v>26.62891253517983</v>
       </c>
       <c r="F164">
-        <v>27.14639423558982</v>
+        <v>26.63464880931728</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>26.8874811079362</v>
+        <v>26.09089589804838</v>
       </c>
       <c r="C165">
-        <v>27.06943785597549</v>
+        <v>26.29486451644297</v>
       </c>
       <c r="D165">
-        <v>26.14718398937593</v>
+        <v>26.17216496391639</v>
       </c>
       <c r="E165">
-        <v>27.44299441153084</v>
+        <v>26.49735486434633</v>
       </c>
       <c r="F165">
-        <v>27.01472470309591</v>
+        <v>26.50308397923318</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>26.75814327260588</v>
+        <v>25.96209300338617</v>
       </c>
       <c r="C166">
-        <v>26.93971616890114</v>
+        <v>26.16364083167851</v>
       </c>
       <c r="D166">
-        <v>26.01811161266013</v>
+        <v>26.04106272730498</v>
       </c>
       <c r="E166">
-        <v>27.31254757520776</v>
+        <v>26.36592861727866</v>
       </c>
       <c r="F166">
-        <v>26.88318571167117</v>
+        <v>26.37165066022295</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>26.6289307508111</v>
+        <v>25.83337503684041</v>
       </c>
       <c r="C167">
-        <v>26.8101264520771</v>
+        <v>26.03254818264442</v>
       </c>
       <c r="D167">
-        <v>25.88917268064166</v>
+        <v>25.91009151684145</v>
       </c>
       <c r="E167">
-        <v>27.18222601005629</v>
+        <v>26.23463366938562</v>
       </c>
       <c r="F167">
-        <v>26.75177722332513</v>
+        <v>26.24034872189725</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>26.49984365830722</v>
+        <v>25.70474382992196</v>
       </c>
       <c r="C168">
-        <v>26.68066862981822</v>
+        <v>25.90158645232054</v>
       </c>
       <c r="D168">
-        <v>25.7603672159773</v>
+        <v>25.77925120481203</v>
       </c>
       <c r="E168">
-        <v>27.05202962699068</v>
+        <v>26.10346989533292</v>
       </c>
       <c r="F168">
-        <v>26.62049919259859</v>
+        <v>26.10917803383012</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>26.3708821031061</v>
+        <v>25.57620111410404</v>
       </c>
       <c r="C169">
-        <v>26.55134262507727</v>
+        <v>25.77075552262889</v>
       </c>
       <c r="D169">
-        <v>25.63169523637746</v>
+        <v>25.64854166321897</v>
       </c>
       <c r="E169">
-        <v>26.92195833519418</v>
+        <v>25.97243716960567</v>
       </c>
       <c r="F169">
-        <v>26.48935156513775</v>
+        <v>25.97813846570875</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>26.24204617068205</v>
+        <v>25.4477485418402</v>
       </c>
       <c r="C170">
-        <v>26.42214835865943</v>
+        <v>25.64005527433109</v>
       </c>
       <c r="D170">
-        <v>25.50315675495906</v>
+        <v>25.5179627639829</v>
       </c>
       <c r="E170">
-        <v>26.7920120427816</v>
+        <v>25.84153536631521</v>
       </c>
       <c r="F170">
-        <v>26.35833428671659</v>
+        <v>25.84722988722445</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>26.11333593865593</v>
+        <v>25.31938767487733</v>
       </c>
       <c r="C171">
-        <v>26.29308574751141</v>
+        <v>25.50948558692514</v>
       </c>
       <c r="D171">
-        <v>25.37475177907784</v>
+        <v>25.38751437885275</v>
       </c>
       <c r="E171">
-        <v>26.66219065617491</v>
+        <v>25.71076435925919</v>
       </c>
       <c r="F171">
-        <v>26.22744729663675</v>
+        <v>25.71645216814639</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>25.98475147743763</v>
+        <v>25.1911199887079</v>
       </c>
       <c r="C172">
-        <v>26.16415470975468</v>
+        <v>25.37904633926793</v>
       </c>
       <c r="D172">
-        <v>25.24648031312066</v>
+        <v>25.25719637950829</v>
       </c>
       <c r="E172">
-        <v>26.53249408062475</v>
+        <v>25.58012402205352</v>
       </c>
       <c r="F172">
-        <v>26.09669052970559</v>
+        <v>25.58580517832396</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>25.85629283575133</v>
+        <v>25.06294690787487</v>
       </c>
       <c r="C173">
-        <v>26.03535516124825</v>
+        <v>25.24873740916739</v>
       </c>
       <c r="D173">
-        <v>25.11834235691676</v>
+        <v>25.12700863753516</v>
       </c>
       <c r="E173">
-        <v>26.4029222210021</v>
+        <v>25.44961422807055</v>
       </c>
       <c r="F173">
-        <v>25.96606391858321</v>
+        <v>25.45528878768571</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>25.72796006152698</v>
+        <v>24.934869768213</v>
       </c>
       <c r="C174">
-        <v>25.90668701408048</v>
+        <v>25.11855867392284</v>
       </c>
       <c r="D174">
-        <v>24.99033790689471</v>
+        <v>24.99695102453196</v>
       </c>
       <c r="E174">
-        <v>26.27347498024534</v>
+        <v>25.3192348505673</v>
       </c>
       <c r="F174">
-        <v>25.83556739152035</v>
+        <v>25.32490286624666</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>25.59975319160246</v>
+        <v>24.806889833149</v>
       </c>
       <c r="C175">
-        <v>25.77815018259729</v>
+        <v>24.98851001009852</v>
       </c>
       <c r="D175">
-        <v>24.86246695723372</v>
+        <v>24.86702341202687</v>
       </c>
       <c r="E175">
-        <v>26.14415226083653</v>
+        <v>25.18898576259031</v>
       </c>
       <c r="F175">
-        <v>25.70520087434928</v>
+        <v>25.19464728412427</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>25.47167224984628</v>
+        <v>24.67900832976266</v>
       </c>
       <c r="C176">
-        <v>25.64974457885651</v>
+        <v>24.8585912938755</v>
       </c>
       <c r="D176">
-        <v>24.73472949769223</v>
+        <v>24.73722567150893</v>
       </c>
       <c r="E176">
-        <v>26.01495396494265</v>
+        <v>25.05886683714989</v>
       </c>
       <c r="F176">
-        <v>25.57496429034084</v>
+        <v>25.06452191153983</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>25.34371725669386</v>
+        <v>24.55122640323904</v>
       </c>
       <c r="C177">
-        <v>25.52147011241044</v>
+        <v>24.72880240083182</v>
       </c>
       <c r="D177">
-        <v>24.60712551706027</v>
+        <v>24.60755767462139</v>
       </c>
       <c r="E177">
-        <v>25.88587999295097</v>
+        <v>24.92887794710417</v>
       </c>
       <c r="F177">
-        <v>25.44485755933375</v>
+        <v>24.93452661879442</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>25.21588822376005</v>
+        <v>24.42354514226922</v>
       </c>
       <c r="C178">
-        <v>25.39332669423782</v>
+        <v>24.5991432063399</v>
       </c>
       <c r="D178">
-        <v>24.47965500119118</v>
+        <v>24.47801929289944</v>
       </c>
       <c r="E178">
-        <v>25.75693024530743</v>
+        <v>24.79901896524643</v>
       </c>
       <c r="F178">
-        <v>25.31488060002064</v>
+        <v>24.80466127632392</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>25.08818515462405</v>
+        <v>24.29596559863468</v>
       </c>
       <c r="C179">
-        <v>25.2653142337402</v>
+        <v>24.46961358525755</v>
       </c>
       <c r="D179">
-        <v>24.35231793342975</v>
+        <v>24.34861039788697</v>
       </c>
       <c r="E179">
-        <v>25.62810462185406</v>
+        <v>24.66928976433179</v>
       </c>
       <c r="F179">
-        <v>25.18503332851839</v>
+        <v>24.6749257546406</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>24.96060804847408</v>
+        <v>24.1684887582989</v>
       </c>
       <c r="C180">
-        <v>25.13743263921403</v>
+        <v>24.34021341228867</v>
       </c>
       <c r="D180">
-        <v>24.22511429617347</v>
+        <v>24.21933086133881</v>
       </c>
       <c r="E180">
-        <v>25.49940302136366</v>
+        <v>24.53969021702264</v>
       </c>
       <c r="F180">
-        <v>25.05531565832814</v>
+        <v>24.54531992438702</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>24.83315689764039</v>
+        <v>24.04111556271105</v>
       </c>
       <c r="C181">
-        <v>25.00968181928368</v>
+        <v>24.2109425618128</v>
       </c>
       <c r="D181">
-        <v>24.09804406934287</v>
+        <v>24.09018055490464</v>
       </c>
       <c r="E181">
-        <v>25.37082534258751</v>
+        <v>24.41022019599896</v>
       </c>
       <c r="F181">
-        <v>24.92572750228704</v>
+        <v>24.41584365630845</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>24.70583168850604</v>
+        <v>23.91384691458831</v>
       </c>
       <c r="C182">
-        <v>24.88206168185319</v>
+        <v>24.08180090800157</v>
       </c>
       <c r="D182">
-        <v>23.97110723198468</v>
+        <v>23.96115935030175</v>
       </c>
       <c r="E182">
-        <v>25.24237148371766</v>
+        <v>24.28087957388265</v>
       </c>
       <c r="F182">
-        <v>24.79626877070922</v>
+        <v>24.28649682126591</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>24.57863240415344</v>
+        <v>23.7866836658802</v>
       </c>
       <c r="C183">
-        <v>24.75457213444683</v>
+        <v>23.95278832487436</v>
       </c>
       <c r="D183">
-        <v>23.84430376180057</v>
+        <v>23.83226711941011</v>
       </c>
       <c r="E183">
-        <v>25.11404134241207</v>
+        <v>24.15166822331993</v>
       </c>
       <c r="F183">
-        <v>24.66693937245328</v>
+        <v>24.15727929023801</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>24.45155902120778</v>
+        <v>23.65962663223492</v>
       </c>
       <c r="C184">
-        <v>24.62721308464663</v>
+        <v>23.82390468626403</v>
       </c>
       <c r="D184">
-        <v>23.71763363516212</v>
+        <v>23.70350373408712</v>
       </c>
       <c r="E184">
-        <v>24.9858348161808</v>
+        <v>24.02258601694541</v>
       </c>
       <c r="F184">
-        <v>24.53773921542024</v>
+        <v>24.02819093432315</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>24.32461151227616</v>
+        <v>23.53267659397354</v>
       </c>
       <c r="C185">
-        <v>24.49998443968568</v>
+        <v>23.69514986592382</v>
       </c>
       <c r="D185">
-        <v>23.59109682795217</v>
+        <v>23.57486906628789</v>
       </c>
       <c r="E185">
-        <v>24.85775180217902</v>
+        <v>23.89363282742132</v>
       </c>
       <c r="F185">
-        <v>24.40866820550177</v>
+        <v>23.8992316247403</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>24.19778984713868</v>
+        <v>23.40583428767296</v>
       </c>
       <c r="C186">
-        <v>24.37288610668012</v>
+        <v>23.56652373747981</v>
       </c>
       <c r="D186">
-        <v>23.46469331495376</v>
+        <v>23.44636298807884</v>
       </c>
       <c r="E186">
-        <v>24.729792197177</v>
+        <v>23.76480852743451</v>
       </c>
       <c r="F186">
-        <v>24.27972624792666</v>
+        <v>23.77040123282828</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>24.07109398961639</v>
+        <v>23.27910042208537</v>
       </c>
       <c r="C187">
-        <v>24.24591799303781</v>
+        <v>23.43802617452584</v>
       </c>
       <c r="D187">
-        <v>23.33842307051064</v>
+        <v>23.31798537158443</v>
       </c>
       <c r="E187">
-        <v>24.60195589792438</v>
+        <v>23.6361129897003</v>
       </c>
       <c r="F187">
-        <v>24.15091324669252</v>
+        <v>23.64169963005417</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>23.94452390135614</v>
+        <v>23.15247567513631</v>
       </c>
       <c r="C188">
-        <v>24.11908000584582</v>
+        <v>23.3096570505644</v>
       </c>
       <c r="D188">
-        <v>23.21228606860056</v>
+        <v>23.18973608903546</v>
       </c>
       <c r="E188">
-        <v>24.47424280087447</v>
+        <v>23.50754608699083</v>
       </c>
       <c r="F188">
-        <v>24.02222910458852</v>
+        <v>23.51312668800098</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>23.81807954076939</v>
+        <v>23.02596068388117</v>
       </c>
       <c r="C189">
-        <v>23.99237205227382</v>
+        <v>23.18141623911188</v>
       </c>
       <c r="D189">
-        <v>23.08628228247194</v>
+        <v>23.06161501276821</v>
       </c>
       <c r="E189">
-        <v>24.34665280220104</v>
+        <v>23.37910769210628</v>
       </c>
       <c r="F189">
-        <v>23.89367372379307</v>
+        <v>23.38468227838322</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>23.69176086191781</v>
+        <v>22.89955606586693</v>
       </c>
       <c r="C190">
-        <v>23.86579403991248</v>
+        <v>23.0533036135723</v>
       </c>
       <c r="D190">
-        <v>22.96041168555132</v>
+        <v>22.93362201519768</v>
       </c>
       <c r="E190">
-        <v>24.21918579814729</v>
+        <v>23.25079767792416</v>
       </c>
       <c r="F190">
-        <v>23.76524700549788</v>
+        <v>23.25636627303651</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>23.56556781716715</v>
+        <v>22.77326240990274</v>
       </c>
       <c r="C191">
-        <v>23.73934587614582</v>
+        <v>22.92531904744995</v>
       </c>
       <c r="D191">
-        <v>22.83467425089491</v>
+        <v>22.80575696886489</v>
       </c>
       <c r="E191">
-        <v>24.09184168470347</v>
+        <v>23.12261591736192</v>
       </c>
       <c r="F191">
-        <v>23.63694885007434</v>
+        <v>23.12817854392188</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>23.43950035587988</v>
+        <v>22.64708026976331</v>
       </c>
       <c r="C192">
-        <v>23.61302746862059</v>
+        <v>22.79746241427821</v>
       </c>
       <c r="D192">
-        <v>22.70906995151495</v>
+        <v>22.67801974642424</v>
       </c>
       <c r="E192">
-        <v>23.96462035772715</v>
+        <v>22.99456228341738</v>
       </c>
       <c r="F192">
-        <v>23.50877915745795</v>
+        <v>23.00011896312799</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>23.31355842442855</v>
+        <v>22.52101018295221</v>
       </c>
       <c r="C193">
-        <v>23.48683872535698</v>
+        <v>22.66973358746339</v>
       </c>
       <c r="D193">
-        <v>22.58359876067422</v>
+        <v>22.55041022059895</v>
       </c>
       <c r="E193">
-        <v>23.83752171312555</v>
+        <v>22.8666366491524</v>
       </c>
       <c r="F193">
-        <v>23.38073782665835</v>
+        <v>22.87218740286886</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>23.18774196757987</v>
+        <v>22.39505266099248</v>
       </c>
       <c r="C194">
-        <v>23.360779554437</v>
+        <v>22.54213244054134</v>
       </c>
       <c r="D194">
-        <v>22.45826065154866</v>
+        <v>22.42292826426393</v>
       </c>
       <c r="E194">
-        <v>23.71054564665413</v>
+        <v>22.73883888770311</v>
       </c>
       <c r="F194">
-        <v>23.25282475629118</v>
+        <v>22.74438373548645</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>23.06205092766295</v>
+        <v>22.26920818760959</v>
       </c>
       <c r="C195">
-        <v>23.23484986430046</v>
+        <v>22.41465884719587</v>
       </c>
       <c r="D195">
-        <v>22.33305559778957</v>
+        <v>22.29557375040216</v>
       </c>
       <c r="E195">
-        <v>23.58369205405138</v>
+        <v>22.61116887228696</v>
       </c>
       <c r="F195">
-        <v>23.1250398445342</v>
+        <v>22.6167078334499</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>22.93648524472507</v>
+        <v>22.1434772305096</v>
       </c>
       <c r="C196">
-        <v>23.10904956374549</v>
+        <v>22.28731268104964</v>
       </c>
       <c r="D196">
-        <v>22.20798357330691</v>
+        <v>22.16834655207701</v>
       </c>
       <c r="E196">
-        <v>23.45696083108403</v>
+        <v>22.48362647619552</v>
       </c>
       <c r="F196">
-        <v>22.99738298882245</v>
+        <v>22.48915956935716</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>22.81104485758129</v>
+        <v>22.01786023534475</v>
       </c>
       <c r="C197">
-        <v>22.98337856184649</v>
+        <v>22.16009381564896</v>
       </c>
       <c r="D197">
-        <v>22.08304455238855</v>
+        <v>22.04124654250134</v>
       </c>
       <c r="E197">
-        <v>23.33035187346521</v>
+        <v>22.35621157282171</v>
       </c>
       <c r="F197">
-        <v>22.86985408645449</v>
+        <v>22.3617388159351</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>22.68572970288492</v>
+        <v>21.89235762512485</v>
       </c>
       <c r="C198">
-        <v>22.85783676810923</v>
+        <v>22.03300212487751</v>
       </c>
       <c r="D198">
-        <v>21.95823850995644</v>
+        <v>21.91427359499585</v>
       </c>
       <c r="E198">
-        <v>23.20386507696427</v>
+        <v>22.22892403565186</v>
       </c>
       <c r="F198">
-        <v>22.74245303426948</v>
+        <v>22.23444544603694</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>22.56053971565611</v>
+        <v>21.76696980813023</v>
       </c>
       <c r="C199">
-        <v>22.73242409246439</v>
+        <v>21.90603748260965</v>
       </c>
       <c r="D199">
-        <v>21.83356542136854</v>
+        <v>21.78742758298617</v>
       </c>
       <c r="E199">
-        <v>23.07750033740144</v>
+        <v>22.10176373822639</v>
       </c>
       <c r="F199">
-        <v>22.61517972868985</v>
+        <v>22.10727933264621</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>22.43547482988881</v>
+        <v>21.64169717378221</v>
       </c>
       <c r="C200">
-        <v>22.60714044518896</v>
+        <v>21.77919976257785</v>
       </c>
       <c r="D200">
-        <v>21.70902526276089</v>
+        <v>21.6607083800304</v>
       </c>
       <c r="E200">
-        <v>22.95125755058582</v>
+        <v>21.97473055422331</v>
       </c>
       <c r="F200">
-        <v>22.48803406600069</v>
+        <v>21.98024034887802</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>22.31053497768102</v>
+        <v>21.51654009214899</v>
       </c>
       <c r="C201">
-        <v>22.48198573711048</v>
+        <v>21.65248883884504</v>
       </c>
       <c r="D201">
-        <v>21.58461801094153</v>
+        <v>21.53411585980299</v>
       </c>
       <c r="E201">
-        <v>22.82513661245869</v>
+        <v>21.84782435742084</v>
       </c>
       <c r="F201">
-        <v>22.36101594215426</v>
+        <v>21.85332836797562</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>22.18572009011693</v>
+        <v>21.3914989207893</v>
       </c>
       <c r="C202">
-        <v>22.35695987954003</v>
+        <v>21.52590458548951</v>
       </c>
       <c r="D202">
-        <v>21.46034364339344</v>
+        <v>21.40764989609689</v>
       </c>
       <c r="E202">
-        <v>22.69913741902953</v>
+        <v>21.72104502167864</v>
       </c>
       <c r="F202">
-        <v>22.23412525290358</v>
+        <v>21.72654326330594</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>22.0610300972747</v>
+        <v>21.26657400066902</v>
       </c>
       <c r="C203">
-        <v>22.2320627841757</v>
+        <v>21.39944687661241</v>
       </c>
       <c r="D203">
-        <v>21.33620213869283</v>
+        <v>21.28131036283112</v>
       </c>
       <c r="E203">
-        <v>22.57325986634114</v>
+        <v>21.59439242093308</v>
       </c>
       <c r="F203">
-        <v>22.10736189389668</v>
+        <v>21.59988490837403</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>21.93646492771211</v>
+        <v>21.14176565609532</v>
       </c>
       <c r="C204">
-        <v>22.10729436336609</v>
+        <v>21.27311558644924</v>
       </c>
       <c r="D204">
-        <v>21.21219347635774</v>
+        <v>21.15509713404687</v>
       </c>
       <c r="E204">
-        <v>22.44750385060664</v>
+        <v>21.46786642928004</v>
       </c>
       <c r="F204">
-        <v>21.98072576052781</v>
+        <v>21.4733531768129</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>21.81202450941258</v>
+        <v>21.01707420071919</v>
       </c>
       <c r="C205">
-        <v>21.98265452997986</v>
+        <v>21.14691058934168</v>
       </c>
       <c r="D205">
-        <v>21.08831763668408</v>
+        <v>21.02901008390605</v>
       </c>
       <c r="E205">
-        <v>22.32186926813344</v>
+        <v>21.34146692090916</v>
       </c>
       <c r="F205">
-        <v>21.85421674818278</v>
+        <v>21.34694794238045</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>21.68770876937199</v>
+        <v>20.89249993352158</v>
       </c>
       <c r="C206">
-        <v>21.85814319737308</v>
+        <v>21.02083175971604</v>
       </c>
       <c r="D206">
-        <v>20.96457460093923</v>
+        <v>20.90304908670025</v>
       </c>
       <c r="E206">
-        <v>22.19635601531551</v>
+        <v>21.21519377006419</v>
       </c>
       <c r="F206">
-        <v>21.72783475215183</v>
+        <v>21.22066907896782</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>21.56351763354234</v>
+        <v>20.76804313948197</v>
       </c>
       <c r="C207">
-        <v>21.73376027957284</v>
+        <v>20.89487897209771</v>
       </c>
       <c r="D207">
-        <v>20.84096435197374</v>
+        <v>20.77721401684424</v>
       </c>
       <c r="E207">
-        <v>22.07096398872928</v>
+        <v>21.08904685115353</v>
       </c>
       <c r="F207">
-        <v>21.60157966759084</v>
+        <v>21.09451646059746</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>21.4394510274158</v>
+        <v>20.64370409402455</v>
       </c>
       <c r="C208">
-        <v>21.60950569118946</v>
+        <v>20.76905210113274</v>
       </c>
       <c r="D208">
-        <v>20.71748687374089</v>
+        <v>20.65150474887361</v>
       </c>
       <c r="E208">
-        <v>21.9456930850775</v>
+        <v>20.96302603868388</v>
       </c>
       <c r="F208">
-        <v>21.47545138972851</v>
+        <v>20.96848996142053</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>21.31550887571655</v>
+        <v>20.51948305982621</v>
       </c>
       <c r="C209">
-        <v>21.48537934743025</v>
+        <v>20.6433510215718</v>
       </c>
       <c r="D209">
-        <v>20.59414215098013</v>
+        <v>20.5259211574569</v>
       </c>
       <c r="E209">
-        <v>21.82054320120129</v>
+        <v>20.83713120726414</v>
       </c>
       <c r="F209">
-        <v>21.34944981374259</v>
+        <v>20.84258945571664</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>21.19169110242163</v>
+        <v>20.39538028795864</v>
       </c>
       <c r="C210">
-        <v>21.36138116418116</v>
+        <v>20.5177756082522</v>
       </c>
       <c r="D210">
-        <v>20.47093016989014</v>
+        <v>20.40046311738595</v>
       </c>
       <c r="E210">
-        <v>21.69551423413072</v>
+        <v>20.71136223160834</v>
       </c>
       <c r="F210">
-        <v>21.22357483480371</v>
+        <v>20.71681481789817</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>21.06799763119767</v>
+        <v>20.27139602077278</v>
       </c>
       <c r="C211">
-        <v>21.23751105798454</v>
+        <v>20.39232573615876</v>
       </c>
       <c r="D211">
-        <v>20.34785091838763</v>
+        <v>20.27513050357598</v>
       </c>
       <c r="E211">
-        <v>21.57060608105594</v>
+        <v>20.58571898656162</v>
       </c>
       <c r="F211">
-        <v>21.09782634818423</v>
+        <v>20.59116592250703</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>20.94442838509987</v>
+        <v>20.14753048963536</v>
       </c>
       <c r="C212">
-        <v>21.1137689460613</v>
+        <v>20.26700128038671</v>
       </c>
       <c r="D212">
-        <v>20.2249043856844</v>
+        <v>20.1499231910741</v>
       </c>
       <c r="E212">
-        <v>21.44581863934436</v>
+        <v>20.46020134707878</v>
       </c>
       <c r="F212">
-        <v>20.97220424916639</v>
+        <v>20.46564264421524</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>20.82098328670305</v>
+        <v>20.02378391626116</v>
       </c>
       <c r="C213">
-        <v>20.99015474634767</v>
+        <v>20.14180211610676</v>
       </c>
       <c r="D213">
-        <v>20.10209056203236</v>
+        <v>20.02484105505255</v>
       </c>
       <c r="E213">
-        <v>21.32115180656788</v>
+        <v>20.33480918822214</v>
       </c>
       <c r="F213">
-        <v>20.84670843313779</v>
+        <v>20.3402448578256</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>20.69766225837918</v>
+        <v>19.90015651457058</v>
       </c>
       <c r="C214">
-        <v>20.86666837750116</v>
+        <v>20.0167281186417</v>
       </c>
       <c r="D214">
-        <v>19.97940943953012</v>
+        <v>19.89988397081012</v>
       </c>
       <c r="E214">
-        <v>21.19660548048539</v>
+        <v>20.20954238518139</v>
       </c>
       <c r="F214">
-        <v>20.72133879560545</v>
+        <v>20.21497243827151</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>20.57446522203129</v>
+        <v>19.77664848892329</v>
       </c>
       <c r="C215">
-        <v>20.74330975891701</v>
+        <v>19.89177916343317</v>
       </c>
       <c r="D215">
-        <v>19.8568610119185</v>
+        <v>19.77505181377537</v>
       </c>
       <c r="E215">
-        <v>21.07217955906425</v>
+        <v>20.0844008132623</v>
       </c>
       <c r="F215">
-        <v>20.59609523215584</v>
+        <v>20.08982526061692</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>20.45139209933162</v>
+        <v>19.65326003564305</v>
       </c>
       <c r="C216">
-        <v>20.62007881076313</v>
+        <v>19.76695512602393</v>
       </c>
       <c r="D216">
-        <v>19.73444527451381</v>
+        <v>19.65034445950428</v>
       </c>
       <c r="E216">
-        <v>20.94787394049622</v>
+        <v>19.95938434788641</v>
       </c>
       <c r="F216">
-        <v>20.47097763855981</v>
+        <v>19.96480320005636</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>20.32844281181294</v>
+        <v>19.52999134420051</v>
       </c>
       <c r="C217">
-        <v>20.49697545398537</v>
+        <v>19.64225588207081</v>
       </c>
       <c r="D217">
-        <v>19.61216222418218</v>
+        <v>19.5257617836812</v>
       </c>
       <c r="E217">
-        <v>20.82368852318225</v>
+        <v>19.83449286459364</v>
       </c>
       <c r="F217">
-        <v>20.34598591073393</v>
+        <v>19.83990613191543</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>20.20561728069163</v>
+        <v>19.40684259567577</v>
       </c>
       <c r="C218">
-        <v>20.37399961032531</v>
+        <v>19.51768130737041</v>
       </c>
       <c r="D218">
-        <v>19.490011859683</v>
+        <v>19.40130366211989</v>
       </c>
       <c r="E218">
-        <v>20.69962320576072</v>
+        <v>19.7097262390511</v>
       </c>
       <c r="F218">
-        <v>20.22111994475071</v>
+        <v>19.71513393165057</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>20.08291542716</v>
+        <v>19.28381396451578</v>
       </c>
       <c r="C219">
-        <v>20.25115120235292</v>
+        <v>19.39323127783184</v>
       </c>
       <c r="D219">
-        <v>19.36799418154417</v>
+        <v>19.27696997076257</v>
       </c>
       <c r="E219">
-        <v>20.57567788711212</v>
+        <v>19.58508434704575</v>
       </c>
       <c r="F219">
-        <v>20.09637963690832</v>
+        <v>19.59048647484829</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>19.96033717232507</v>
+        <v>19.16090561911966</v>
       </c>
       <c r="C220">
-        <v>20.12843015347575</v>
+        <v>19.26890566947781</v>
       </c>
       <c r="D220">
-        <v>19.2461091921528</v>
+        <v>19.15276058568078</v>
       </c>
       <c r="E220">
-        <v>20.45185246635025</v>
+        <v>19.46056706447436</v>
       </c>
       <c r="F220">
-        <v>19.97176488367699</v>
+        <v>19.46596363722682</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>19.83788243714793</v>
+        <v>19.0381177205809</v>
       </c>
       <c r="C221">
-        <v>20.00583638796071</v>
+        <v>19.14470435846409</v>
       </c>
       <c r="D221">
-        <v>19.12435689589592</v>
+        <v>19.02867538307614</v>
       </c>
       <c r="E221">
-        <v>20.32814684285145</v>
+        <v>19.33617426737003</v>
       </c>
       <c r="F221">
-        <v>19.84727558175743</v>
+        <v>19.34156529463518</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>19.71555114269281</v>
+        <v>18.9154504245627</v>
       </c>
       <c r="C222">
-        <v>19.8833698309534</v>
+        <v>19.02062722106697</v>
       </c>
       <c r="D222">
-        <v>19.00273729905429</v>
+        <v>18.90471423927906</v>
       </c>
       <c r="E222">
-        <v>20.20456091625098</v>
+        <v>19.21190583188531</v>
       </c>
       <c r="F222">
-        <v>19.72291162812675</v>
+        <v>19.21729132305322</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>19.5933432100266</v>
+        <v>18.79290388136414</v>
       </c>
       <c r="C223">
-        <v>19.76103040850415</v>
+        <v>18.89667413368528</v>
       </c>
       <c r="D223">
-        <v>18.88125040997864</v>
+        <v>18.78087703074995</v>
       </c>
       <c r="E223">
-        <v>20.08109458644578</v>
+        <v>19.08776163429178</v>
       </c>
       <c r="F223">
-        <v>19.59867292002294</v>
+        <v>19.09314159859168</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>19.47125856022486</v>
+        <v>18.67047823501044</v>
       </c>
       <c r="C224">
-        <v>19.63881804758737</v>
+        <v>18.77284497284525</v>
       </c>
       <c r="D224">
-        <v>18.75989623913539</v>
+        <v>18.65716363407984</v>
       </c>
       <c r="E224">
-        <v>19.95774775361338</v>
+        <v>18.96374155098398</v>
       </c>
       <c r="F224">
-        <v>19.47455935488872</v>
+        <v>18.96911599749274</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>19.34929711455434</v>
+        <v>18.54817362511019</v>
       </c>
       <c r="C225">
-        <v>19.51673267611034</v>
+        <v>18.64913961519915</v>
       </c>
       <c r="D225">
-        <v>18.63867479923252</v>
+        <v>18.53357392598907</v>
       </c>
       <c r="E225">
-        <v>19.83452031821179</v>
+        <v>18.83984545848599</v>
       </c>
       <c r="F225">
-        <v>19.35057083045224</v>
+        <v>18.84521439612958</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>19.22745879438452</v>
+        <v>18.42599018654746</v>
       </c>
       <c r="C226">
-        <v>19.39477422295611</v>
+        <v>18.52555793752315</v>
       </c>
       <c r="D226">
-        <v>18.51758610510391</v>
+        <v>18.41010778332857</v>
       </c>
       <c r="E226">
-        <v>19.71141218098672</v>
+        <v>18.7160732334445</v>
       </c>
       <c r="F226">
-        <v>19.2267072448421</v>
+        <v>18.72143667100688</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>19.10574352122941</v>
+        <v>18.30392804884911</v>
       </c>
       <c r="C227">
-        <v>19.27294261799547</v>
+        <v>18.40209981672072</v>
       </c>
       <c r="D227">
-        <v>18.39663017390336</v>
+        <v>18.28676508308007</v>
       </c>
       <c r="E227">
-        <v>19.5884232429827</v>
+        <v>18.59242475262705</v>
       </c>
       <c r="F227">
-        <v>19.1029684964803</v>
+        <v>18.59778269876035</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>18.98415121687145</v>
+        <v>18.18198733801208</v>
       </c>
       <c r="C228">
-        <v>19.15123779209531</v>
+        <v>18.27876512982602</v>
       </c>
       <c r="D228">
-        <v>18.27580702516359</v>
+        <v>18.16354570235556</v>
       </c>
       <c r="E228">
-        <v>19.46555340554776</v>
+        <v>18.46889989293151</v>
       </c>
       <c r="F228">
-        <v>18.97935448404532</v>
+        <v>18.47425235615711</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>18.86268180325883</v>
+        <v>18.06016817589492</v>
       </c>
       <c r="C229">
-        <v>19.02965967717103</v>
+        <v>18.1555537539988</v>
       </c>
       <c r="D229">
-        <v>18.15511668089018</v>
+        <v>18.04044951839802</v>
       </c>
       <c r="E229">
-        <v>19.34280257034121</v>
+        <v>18.34549853138032</v>
       </c>
       <c r="F229">
-        <v>18.85586510651409</v>
+        <v>18.35084552009609</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>18.74133520262572</v>
+        <v>17.938470679881</v>
       </c>
       <c r="C230">
-        <v>18.90820820619031</v>
+        <v>18.03246556652179</v>
       </c>
       <c r="D230">
-        <v>18.03455916547216</v>
+        <v>17.91747640858145</v>
       </c>
       <c r="E230">
-        <v>19.22017063934176</v>
+        <v>18.22222054512129</v>
       </c>
       <c r="F230">
-        <v>18.73250026337079</v>
+        <v>18.22756206760783</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>18.62011133757537</v>
+        <v>17.816894964484</v>
       </c>
       <c r="C231">
-        <v>18.78688331318769</v>
+        <v>17.90950044481388</v>
       </c>
       <c r="D231">
-        <v>17.91413450587142</v>
+        <v>17.79462625041116</v>
       </c>
       <c r="E231">
-        <v>19.0976575148543</v>
+        <v>18.09906581142906</v>
       </c>
       <c r="F231">
-        <v>18.6092598544199</v>
+        <v>18.10440187585418</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>18.49901013105157</v>
+        <v>17.69544114065452</v>
       </c>
       <c r="C232">
-        <v>18.66568493334462</v>
+        <v>17.78665826642094</v>
       </c>
       <c r="D232">
-        <v>17.79384273174346</v>
+        <v>17.67189892152366</v>
       </c>
       <c r="E232">
-        <v>18.97526309951748</v>
+        <v>17.97603420770633</v>
       </c>
       <c r="F232">
-        <v>18.48614377981202</v>
+        <v>17.9813648221289</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>18.37803150629765</v>
+        <v>17.57410931522066</v>
       </c>
       <c r="C233">
-        <v>18.54461300294523</v>
+        <v>17.66393890901193</v>
       </c>
       <c r="D233">
-        <v>17.67368387547375</v>
+        <v>17.54929429968706</v>
       </c>
       <c r="E233">
-        <v>18.85298729631738</v>
+        <v>17.8531256114829</v>
       </c>
       <c r="F233">
-        <v>18.36315194003859</v>
+        <v>17.85845078385832</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>18.25717538681744</v>
+        <v>17.45289959333498</v>
       </c>
       <c r="C234">
-        <v>18.4236674594076</v>
+        <v>17.54134225039162</v>
       </c>
       <c r="D234">
-        <v>17.55365797206301</v>
+        <v>17.42681226280112</v>
       </c>
       <c r="E234">
-        <v>18.73083000858209</v>
+        <v>17.7303399004148</v>
       </c>
       <c r="F234">
-        <v>18.24028423611384</v>
+        <v>17.73565963859999</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>18.13644169683348</v>
+        <v>17.33181207725401</v>
       </c>
       <c r="C235">
-        <v>18.30284824132371</v>
+        <v>17.41886816849274</v>
       </c>
       <c r="D235">
-        <v>17.43376505937845</v>
+        <v>17.30445268889778</v>
       </c>
       <c r="E235">
-        <v>18.60879113999843</v>
+        <v>17.6076769522883</v>
       </c>
       <c r="F235">
-        <v>18.11754056943431</v>
+        <v>17.61299126404377</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>18.01583036094947</v>
+        <v>17.21084686696729</v>
       </c>
       <c r="C236">
-        <v>18.18215528853636</v>
+        <v>17.29651654137714</v>
       </c>
       <c r="D236">
-        <v>17.31400517837172</v>
+        <v>17.18221545614107</v>
       </c>
       <c r="E236">
-        <v>18.48687059461705</v>
+        <v>17.48513664501774</v>
       </c>
       <c r="F236">
-        <v>17.99492084182925</v>
+        <v>17.49044553801218</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>17.89534130426509</v>
+        <v>17.09000405805718</v>
       </c>
       <c r="C237">
-        <v>18.06158854222188</v>
+        <v>17.17428724723736</v>
       </c>
       <c r="D237">
-        <v>17.19437837293868</v>
+        <v>17.060100442827</v>
       </c>
       <c r="E237">
-        <v>18.36506827687499</v>
+        <v>17.36271885664507</v>
       </c>
       <c r="F237">
-        <v>17.87242495556484</v>
+        <v>17.36802233846005</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>17.77497445199172</v>
+        <v>16.96928374542169</v>
       </c>
       <c r="C238">
-        <v>17.94114794461563</v>
+        <v>17.0521801643972</v>
       </c>
       <c r="D238">
-        <v>17.07488468988809</v>
+        <v>16.93810752738412</v>
       </c>
       <c r="E238">
-        <v>18.24338409158557</v>
+        <v>17.24042346534176</v>
       </c>
       <c r="F238">
-        <v>17.75005281339445</v>
+        <v>17.24572154347438</v>
       </c>
     </row>
   </sheetData>
